--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63932136-AD73-48C2-9475-0B5ECE9E8B2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2317F709-076F-48E5-89F5-BA64F10362BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2290,7 +2290,7 @@
       <pane xSplit="11" ySplit="8" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -4837,18 +4837,18 @@
       </c>
       <c r="G17" s="43">
         <f ca="1">TODAY()</f>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="H17" s="50">
         <v>6</v>
       </c>
       <c r="I17" s="53">
         <f ca="1">IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J17" s="24">
         <f ca="1">Hitos[[#This Row],[Fin]]-Hitos[[#This Row],[Inicio]]</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K17" s="18"/>
       <c r="L17" s="27"/>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="E18" s="59">
         <f>AVERAGE(E19:E25)</f>
-        <v>0.6428571428571429</v>
+        <v>1</v>
       </c>
       <c r="F18" s="58">
         <f>MIN(F19:F25)</f>
@@ -4927,7 +4927,7 @@
       </c>
       <c r="G18" s="58">
         <f ca="1">MAX(G19:G25)</f>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="H18" s="51">
         <v>12</v>
@@ -5007,25 +5007,24 @@
         <v>33</v>
       </c>
       <c r="E19" s="60">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F19" s="57">
         <v>44104</v>
       </c>
       <c r="G19" s="57">
-        <f ca="1">TODAY()</f>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="H19" s="50">
         <v>12</v>
       </c>
       <c r="I19" s="53">
-        <f ca="1">IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
-        <v>4</v>
+        <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
+        <v>5</v>
       </c>
       <c r="J19" s="47">
-        <f ca="1">Hitos[[#This Row],[Fin]]-Hitos[[#This Row],[Inicio]]</f>
-        <v>16</v>
+        <f>Hitos[[#This Row],[Fin]]-Hitos[[#This Row],[Inicio]]</f>
+        <v>17</v>
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="27"/>
@@ -5181,25 +5180,24 @@
         <v>32</v>
       </c>
       <c r="E21" s="60">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F21" s="57">
         <v>44105</v>
       </c>
       <c r="G21" s="57">
-        <f t="shared" ref="G21:G25" ca="1" si="12">TODAY()</f>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="H21" s="50">
         <v>12</v>
       </c>
       <c r="I21" s="53">
-        <f ca="1">IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
-        <v>3</v>
+        <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
+        <v>4</v>
       </c>
       <c r="J21" s="47">
-        <f ca="1">Hitos[[#This Row],[Fin]]-Hitos[[#This Row],[Inicio]]</f>
-        <v>15</v>
+        <f>Hitos[[#This Row],[Fin]]-Hitos[[#This Row],[Inicio]]</f>
+        <v>16</v>
       </c>
       <c r="K21" s="18"/>
       <c r="L21" s="27"/>
@@ -5530,25 +5528,25 @@
         <v>33</v>
       </c>
       <c r="E25" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="57">
         <v>44105</v>
       </c>
       <c r="G25" s="57">
-        <f t="shared" ca="1" si="12"/>
-        <v>44120</v>
+        <f t="shared" ref="G21:G25" ca="1" si="12">TODAY()</f>
+        <v>44121</v>
       </c>
       <c r="H25" s="50">
         <v>12</v>
       </c>
       <c r="I25" s="53">
         <f ca="1">IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J25" s="47">
         <f ca="1">Hitos[[#This Row],[Fin]]-Hitos[[#This Row],[Inicio]]</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K25" s="18"/>
       <c r="L25" s="27"/>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2317F709-076F-48E5-89F5-BA64F10362BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D127DE14-9365-4223-BD73-851088D31452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
   <si>
     <t>Cree un diagrama de Gantt en esta hoja de cálculo.
 Escriba el título de este proyecto en la celda B1. 
@@ -188,10 +188,6 @@
   </si>
   <si>
     <t>Esta es una fila vacía.</t>
-  </si>
-  <si>
-    <t>Esta fila marca la finalización de los datos de hito de Gantt. NO escriba nada en esta fila. 
-Para agregar más elementos, inserte filas nuevas encima de esta.</t>
   </si>
   <si>
     <t>Categoría</t>
@@ -318,6 +314,66 @@
   </si>
   <si>
     <t>haragon</t>
+  </si>
+  <si>
+    <t>Puesta en marcha REQ 02</t>
+  </si>
+  <si>
+    <t>REQ 02.2</t>
+  </si>
+  <si>
+    <t>REQ 02.3</t>
+  </si>
+  <si>
+    <t>REQ 02.4</t>
+  </si>
+  <si>
+    <t>Cargar a servidor avances de sprint 2</t>
+  </si>
+  <si>
+    <t>Cargar a servidor avances de sprint 3</t>
+  </si>
+  <si>
+    <t>Puesta en marcha REQ 03</t>
+  </si>
+  <si>
+    <t>REQ 02.1</t>
+  </si>
+  <si>
+    <t>REQ 03.1</t>
+  </si>
+  <si>
+    <t>REQ 03.2</t>
+  </si>
+  <si>
+    <t>REQ 03.3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Puesta en marcha REQ 04</t>
+  </si>
+  <si>
+    <t>REQ 04.1</t>
+  </si>
+  <si>
+    <t>REQ 04.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruebas de funcionamiento </t>
+  </si>
+  <si>
+    <t>REQ1</t>
+  </si>
+  <si>
+    <t>REQ2</t>
+  </si>
+  <si>
+    <t>REQ3</t>
+  </si>
+  <si>
+    <t>REQ4</t>
   </si>
 </sst>
 </file>
@@ -563,18 +619,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -762,7 +812,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -890,19 +940,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
@@ -914,15 +951,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1056,44 +1084,44 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1128,14 +1156,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1144,51 +1171,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1204,7 +1216,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1212,9 +1223,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1235,7 +1243,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1271,11 +1279,50 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="9" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="21" xfId="9" applyBorder="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="9" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="9" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1330,76 +1377,37 @@
     <cellStyle name="Total" xfId="25" builtinId="25" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="36">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="0"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1421,35 +1429,6 @@
           <bgColor theme="7"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF5019"/>
-          </stop>
-          <stop position="0.5">
-            <color rgb="FF92D050"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF5019"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF92D050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF92D050"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1509,6 +1488,35 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF5019"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FF92D050"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF5019"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF92D050"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF92D050"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1662,6 +1670,76 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -1806,20 +1884,20 @@
   </dxfs>
   <tableStyles count="2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de tabla personalizado" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="firstRowStripe" dxfId="33"/>
+    </tableStyle>
+    <tableStyle name="ListaTareasPendientes" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="32"/>
       <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="firstRowStripe" dxfId="30"/>
-    </tableStyle>
-    <tableStyle name="ListaTareasPendientes" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="29"/>
-      <tableStyleElement type="headerRow" dxfId="28"/>
-      <tableStyleElement type="totalRow" dxfId="27"/>
-      <tableStyleElement type="firstColumn" dxfId="26"/>
-      <tableStyleElement type="lastColumn" dxfId="25"/>
-      <tableStyleElement type="firstRowStripe" dxfId="24"/>
-      <tableStyleElement type="secondRowStripe" dxfId="23"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="22"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="21"/>
+      <tableStyleElement type="totalRow" dxfId="30"/>
+      <tableStyleElement type="firstColumn" dxfId="29"/>
+      <tableStyleElement type="lastColumn" dxfId="28"/>
+      <tableStyleElement type="firstRowStripe" dxfId="27"/>
+      <tableStyleElement type="secondRowStripe" dxfId="26"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="25"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="24"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1930,7 +2008,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>67</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
@@ -1973,8 +2051,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Hitos" displayName="Hitos" ref="B7:J34" totalsRowShown="0">
-  <autoFilter ref="B7:J34" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Hitos" displayName="Hitos" ref="B7:J44" totalsRowShown="0">
+  <autoFilter ref="B7:J44" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1986,17 +2064,17 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Actividad" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Responsible" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Actividad" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Responsible" dataDxfId="21"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progreso"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Inicio" dataCellStyle="Fecha"/>
-    <tableColumn id="7" xr3:uid="{AD711F2E-44A9-44B7-8131-6D3B788C5B59}" name="Fin" dataDxfId="3" dataCellStyle="Fecha">
+    <tableColumn id="7" xr3:uid="{AD711F2E-44A9-44B7-8131-6D3B788C5B59}" name="Fin" dataDxfId="20" dataCellStyle="Fecha">
       <calculatedColumnFormula>IF(Hitos[[#This Row],[Tempo Real]]="","",Hitos[[#This Row],[Inicio]]+Hitos[[#This Row],[Tempo Real]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{35C8688A-27C0-48D0-8EF8-7CEECBAB268F}" name="Tiempo estimado" dataDxfId="2" dataCellStyle="Fecha"/>
-    <tableColumn id="10" xr3:uid="{7E204890-F31C-4688-99B2-203C9F0B1172}" name="Tiempo de retraso" dataDxfId="1" dataCellStyle="Fecha"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Tempo Real" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{35C8688A-27C0-48D0-8EF8-7CEECBAB268F}" name="Tiempo estimado" dataDxfId="19" dataCellStyle="Fecha"/>
+    <tableColumn id="10" xr3:uid="{7E204890-F31C-4688-99B2-203C9F0B1172}" name="Tiempo de retraso" dataDxfId="18" dataCellStyle="Fecha"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Tempo Real" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabla personalizado" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2284,13 +2362,13 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO37"/>
+  <dimension ref="A1:BO46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="11" ySplit="8" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="11" ySplit="8" topLeftCell="M9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="BC46" sqref="BC46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2298,11 +2376,12 @@
     <col min="1" max="1" width="2.7109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="21" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="21" customWidth="1"/>
     <col min="11" max="11" width="2.7109375" customWidth="1"/>
     <col min="12" max="67" width="5.5703125" customWidth="1"/>
     <col min="72" max="73" width="10.28515625"/>
@@ -2313,15 +2392,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="1"/>
       <c r="F1"/>
-      <c r="G1" s="41"/>
+      <c r="G1" s="35"/>
       <c r="J1" s="7"/>
-      <c r="L1" s="28" t="s">
-        <v>21</v>
+      <c r="L1" s="24" t="s">
+        <v>20</v>
       </c>
       <c r="M1" s="8"/>
     </row>
@@ -2330,391 +2409,391 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="12"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="68">
+      <c r="D3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="60">
         <f ca="1">IFERROR(IF(MIN(Hitos[Inicio])=0,TODAY(),MIN(Hitos[Inicio])),TODAY())</f>
         <v>44088</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
       <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="31">
+      <c r="D4" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="58"/>
+      <c r="F4" s="26">
         <v>0</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="L4" s="30" t="str">
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="L4" s="25" t="str">
         <f ca="1">TEXT(L5,"mmmm")</f>
         <v>septiembre</v>
       </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30" t="str">
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25" t="str">
         <f ca="1">IF(TEXT(S5,"mmmm")=L4,"",TEXT(S5,"mmmm"))</f>
         <v/>
       </c>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30" t="str">
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25" t="str">
         <f ca="1">IF(OR(TEXT(Z5,"mmmm")=S4,TEXT(Z5,"mmmm")=L4),"",TEXT(Z5,"mmmm"))</f>
         <v/>
       </c>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30" t="str">
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25" t="str">
         <f ca="1">IF(OR(TEXT(AG5,"mmmm")=Z4,TEXT(AG5,"mmmm")=S4,TEXT(AG5,"mmmm")=L4),"",TEXT(AG5,"mmmm"))</f>
         <v>octubre</v>
       </c>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="30" t="str">
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25" t="str">
         <f ca="1">IF(OR(TEXT(AN5,"mmmm")=AG4,TEXT(AN5,"mmmm")=Z4,TEXT(AN5,"mmmm")=S4,TEXT(AN5,"mmmm")=L4),"",TEXT(AN5,"mmmm"))</f>
         <v/>
       </c>
-      <c r="AO4" s="30"/>
-      <c r="AP4" s="30"/>
-      <c r="AQ4" s="30"/>
-      <c r="AR4" s="30"/>
-      <c r="AS4" s="30"/>
-      <c r="AT4" s="30"/>
-      <c r="AU4" s="30" t="str">
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="25"/>
+      <c r="AR4" s="25"/>
+      <c r="AS4" s="25"/>
+      <c r="AT4" s="25"/>
+      <c r="AU4" s="25" t="str">
         <f ca="1">IF(OR(TEXT(AU5,"mmmm")=AN4,TEXT(AU5,"mmmm")=AG4,TEXT(AU5,"mmmm")=Z4,TEXT(AU5,"mmmm")=S4),"",TEXT(AU5,"mmmm"))</f>
         <v/>
       </c>
-      <c r="AV4" s="30"/>
-      <c r="AW4" s="30"/>
-      <c r="AX4" s="30"/>
-      <c r="AY4" s="30"/>
-      <c r="AZ4" s="30"/>
-      <c r="BA4" s="30"/>
-      <c r="BB4" s="30" t="str">
+      <c r="AV4" s="25"/>
+      <c r="AW4" s="25"/>
+      <c r="AX4" s="25"/>
+      <c r="AY4" s="25"/>
+      <c r="AZ4" s="25"/>
+      <c r="BA4" s="25"/>
+      <c r="BB4" s="25" t="str">
         <f ca="1">IF(OR(TEXT(BB5,"mmmm")=AU4,TEXT(BB5,"mmmm")=AN4,TEXT(BB5,"mmmm")=AG4,TEXT(BB5,"mmmm")=Z4),"",TEXT(BB5,"mmmm"))</f>
         <v/>
       </c>
-      <c r="BC4" s="30"/>
-      <c r="BD4" s="30"/>
-      <c r="BE4" s="30"/>
-      <c r="BF4" s="30"/>
-      <c r="BG4" s="30"/>
-      <c r="BH4" s="30"/>
-      <c r="BI4" s="30" t="str">
+      <c r="BC4" s="25"/>
+      <c r="BD4" s="25"/>
+      <c r="BE4" s="25"/>
+      <c r="BF4" s="25"/>
+      <c r="BG4" s="25"/>
+      <c r="BH4" s="25"/>
+      <c r="BI4" s="25" t="str">
         <f ca="1">IF(OR(TEXT(BI5,"mmmm")=BB4,TEXT(BI5,"mmmm")=AU4,TEXT(BI5,"mmmm")=AN4,TEXT(BI5,"mmmm")=AG4),"",TEXT(BI5,"mmmm"))</f>
         <v>noviembre</v>
       </c>
-      <c r="BJ4" s="30"/>
-      <c r="BK4" s="30"/>
-      <c r="BL4" s="30"/>
-      <c r="BM4" s="30"/>
-      <c r="BN4" s="30"/>
-      <c r="BO4" s="30"/>
+      <c r="BJ4" s="25"/>
+      <c r="BK4" s="25"/>
+      <c r="BL4" s="25"/>
+      <c r="BM4" s="25"/>
+      <c r="BN4" s="25"/>
+      <c r="BO4" s="25"/>
     </row>
     <row r="5" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="36">
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="30">
         <f ca="1">IFERROR(Inicio_del_proyecto+Incremento_de_desplazamiento,TODAY())</f>
         <v>44088</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="31">
         <f ca="1">L5+1</f>
         <v>44089</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="31">
         <f t="shared" ref="N5:BA5" ca="1" si="0">M5+1</f>
         <v>44090</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>44091</v>
       </c>
-      <c r="P5" s="37">
+      <c r="P5" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>44092</v>
       </c>
-      <c r="Q5" s="37">
+      <c r="Q5" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>44093</v>
       </c>
-      <c r="R5" s="38">
+      <c r="R5" s="32">
         <f t="shared" ca="1" si="0"/>
         <v>44094</v>
       </c>
-      <c r="S5" s="36">
+      <c r="S5" s="30">
         <f ca="1">R5+1</f>
         <v>44095</v>
       </c>
-      <c r="T5" s="37">
+      <c r="T5" s="31">
         <f ca="1">S5+1</f>
         <v>44096</v>
       </c>
-      <c r="U5" s="37">
+      <c r="U5" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>44097</v>
       </c>
-      <c r="V5" s="37">
+      <c r="V5" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>44098</v>
       </c>
-      <c r="W5" s="37">
+      <c r="W5" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>44099</v>
       </c>
-      <c r="X5" s="37">
+      <c r="X5" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>44100</v>
       </c>
-      <c r="Y5" s="38">
+      <c r="Y5" s="32">
         <f t="shared" ca="1" si="0"/>
         <v>44101</v>
       </c>
-      <c r="Z5" s="36">
+      <c r="Z5" s="30">
         <f ca="1">Y5+1</f>
         <v>44102</v>
       </c>
-      <c r="AA5" s="37">
+      <c r="AA5" s="31">
         <f ca="1">Z5+1</f>
         <v>44103</v>
       </c>
-      <c r="AB5" s="37">
+      <c r="AB5" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>44104</v>
       </c>
-      <c r="AC5" s="37">
+      <c r="AC5" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>44105</v>
       </c>
-      <c r="AD5" s="37">
+      <c r="AD5" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>44106</v>
       </c>
-      <c r="AE5" s="37">
+      <c r="AE5" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>44107</v>
       </c>
-      <c r="AF5" s="38">
+      <c r="AF5" s="32">
         <f t="shared" ca="1" si="0"/>
         <v>44108</v>
       </c>
-      <c r="AG5" s="36">
+      <c r="AG5" s="30">
         <f ca="1">AF5+1</f>
         <v>44109</v>
       </c>
-      <c r="AH5" s="37">
+      <c r="AH5" s="31">
         <f ca="1">AG5+1</f>
         <v>44110</v>
       </c>
-      <c r="AI5" s="37">
+      <c r="AI5" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>44111</v>
       </c>
-      <c r="AJ5" s="37">
+      <c r="AJ5" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>44112</v>
       </c>
-      <c r="AK5" s="37">
+      <c r="AK5" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>44113</v>
       </c>
-      <c r="AL5" s="37">
+      <c r="AL5" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>44114</v>
       </c>
-      <c r="AM5" s="38">
+      <c r="AM5" s="32">
         <f t="shared" ca="1" si="0"/>
         <v>44115</v>
       </c>
-      <c r="AN5" s="36">
+      <c r="AN5" s="30">
         <f ca="1">AM5+1</f>
         <v>44116</v>
       </c>
-      <c r="AO5" s="37">
+      <c r="AO5" s="31">
         <f ca="1">AN5+1</f>
         <v>44117</v>
       </c>
-      <c r="AP5" s="37">
+      <c r="AP5" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>44118</v>
       </c>
-      <c r="AQ5" s="37">
+      <c r="AQ5" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>44119</v>
       </c>
-      <c r="AR5" s="37">
+      <c r="AR5" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>44120</v>
       </c>
-      <c r="AS5" s="37">
+      <c r="AS5" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>44121</v>
       </c>
-      <c r="AT5" s="38">
+      <c r="AT5" s="32">
         <f t="shared" ca="1" si="0"/>
         <v>44122</v>
       </c>
-      <c r="AU5" s="36">
+      <c r="AU5" s="30">
         <f ca="1">AT5+1</f>
         <v>44123</v>
       </c>
-      <c r="AV5" s="37">
+      <c r="AV5" s="31">
         <f ca="1">AU5+1</f>
         <v>44124</v>
       </c>
-      <c r="AW5" s="37">
+      <c r="AW5" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>44125</v>
       </c>
-      <c r="AX5" s="37">
+      <c r="AX5" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>44126</v>
       </c>
-      <c r="AY5" s="37">
+      <c r="AY5" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>44127</v>
       </c>
-      <c r="AZ5" s="37">
+      <c r="AZ5" s="31">
         <f t="shared" ca="1" si="0"/>
         <v>44128</v>
       </c>
-      <c r="BA5" s="38">
+      <c r="BA5" s="32">
         <f t="shared" ca="1" si="0"/>
         <v>44129</v>
       </c>
-      <c r="BB5" s="36">
+      <c r="BB5" s="30">
         <f ca="1">BA5+1</f>
         <v>44130</v>
       </c>
-      <c r="BC5" s="37">
+      <c r="BC5" s="31">
         <f ca="1">BB5+1</f>
         <v>44131</v>
       </c>
-      <c r="BD5" s="37">
+      <c r="BD5" s="31">
         <f t="shared" ref="BD5:BH5" ca="1" si="1">BC5+1</f>
         <v>44132</v>
       </c>
-      <c r="BE5" s="37">
+      <c r="BE5" s="31">
         <f t="shared" ca="1" si="1"/>
         <v>44133</v>
       </c>
-      <c r="BF5" s="37">
+      <c r="BF5" s="31">
         <f t="shared" ca="1" si="1"/>
         <v>44134</v>
       </c>
-      <c r="BG5" s="37">
+      <c r="BG5" s="31">
         <f t="shared" ca="1" si="1"/>
         <v>44135</v>
       </c>
-      <c r="BH5" s="38">
+      <c r="BH5" s="32">
         <f t="shared" ca="1" si="1"/>
         <v>44136</v>
       </c>
-      <c r="BI5" s="36">
+      <c r="BI5" s="30">
         <f ca="1">BH5+1</f>
         <v>44137</v>
       </c>
-      <c r="BJ5" s="37">
+      <c r="BJ5" s="31">
         <f ca="1">BI5+1</f>
         <v>44138</v>
       </c>
-      <c r="BK5" s="37">
+      <c r="BK5" s="31">
         <f t="shared" ref="BK5:BO5" ca="1" si="2">BJ5+1</f>
         <v>44139</v>
       </c>
-      <c r="BL5" s="37">
+      <c r="BL5" s="31">
         <f t="shared" ca="1" si="2"/>
         <v>44140</v>
       </c>
-      <c r="BM5" s="37">
+      <c r="BM5" s="31">
         <f t="shared" ca="1" si="2"/>
         <v>44141</v>
       </c>
-      <c r="BN5" s="37">
+      <c r="BN5" s="31">
         <f t="shared" ca="1" si="2"/>
         <v>44142</v>
       </c>
-      <c r="BO5" s="38">
+      <c r="BO5" s="32">
         <f t="shared" ca="1" si="2"/>
         <v>44143</v>
       </c>
@@ -2724,317 +2803,317 @@
         <v>5</v>
       </c>
       <c r="F6"/>
-      <c r="G6" s="41"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="33"/>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="33"/>
-      <c r="AL6" s="33"/>
-      <c r="AM6" s="34"/>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="33"/>
-      <c r="AP6" s="33"/>
-      <c r="AQ6" s="33"/>
-      <c r="AR6" s="33"/>
-      <c r="AS6" s="33"/>
-      <c r="AT6" s="34"/>
-      <c r="AU6" s="32"/>
-      <c r="AV6" s="33"/>
-      <c r="AW6" s="33"/>
-      <c r="AX6" s="33"/>
-      <c r="AY6" s="33"/>
-      <c r="AZ6" s="33"/>
-      <c r="BA6" s="34"/>
-      <c r="BB6" s="32"/>
-      <c r="BC6" s="33"/>
-      <c r="BD6" s="33"/>
-      <c r="BE6" s="33"/>
-      <c r="BF6" s="33"/>
-      <c r="BG6" s="33"/>
-      <c r="BH6" s="34"/>
-      <c r="BI6" s="32"/>
-      <c r="BJ6" s="33"/>
-      <c r="BK6" s="33"/>
-      <c r="BL6" s="33"/>
-      <c r="BM6" s="33"/>
-      <c r="BN6" s="33"/>
-      <c r="BO6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="29"/>
+      <c r="AN6" s="27"/>
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="28"/>
+      <c r="AQ6" s="28"/>
+      <c r="AR6" s="28"/>
+      <c r="AS6" s="28"/>
+      <c r="AT6" s="29"/>
+      <c r="AU6" s="27"/>
+      <c r="AV6" s="28"/>
+      <c r="AW6" s="28"/>
+      <c r="AX6" s="28"/>
+      <c r="AY6" s="28"/>
+      <c r="AZ6" s="28"/>
+      <c r="BA6" s="29"/>
+      <c r="BB6" s="27"/>
+      <c r="BC6" s="28"/>
+      <c r="BD6" s="28"/>
+      <c r="BE6" s="28"/>
+      <c r="BF6" s="28"/>
+      <c r="BG6" s="28"/>
+      <c r="BH6" s="29"/>
+      <c r="BI6" s="27"/>
+      <c r="BJ6" s="28"/>
+      <c r="BK6" s="28"/>
+      <c r="BL6" s="28"/>
+      <c r="BM6" s="28"/>
+      <c r="BN6" s="28"/>
+      <c r="BO6" s="29"/>
     </row>
     <row r="7" spans="1:67" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="17" t="str">
+      <c r="K7" s="18"/>
+      <c r="L7" s="16" t="str">
         <f t="shared" ref="L7" ca="1" si="3">LEFT(TEXT(L5,"ddd"),1)</f>
         <v>l</v>
       </c>
-      <c r="M7" s="17" t="str">
+      <c r="M7" s="16" t="str">
         <f t="shared" ref="M7:AU7" ca="1" si="4">LEFT(TEXT(M5,"ddd"),1)</f>
         <v>m</v>
       </c>
-      <c r="N7" s="17" t="str">
+      <c r="N7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="O7" s="17" t="str">
+      <c r="O7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>j</v>
       </c>
-      <c r="P7" s="17" t="str">
+      <c r="P7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>v</v>
       </c>
-      <c r="Q7" s="17" t="str">
+      <c r="Q7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>s</v>
       </c>
-      <c r="R7" s="17" t="str">
+      <c r="R7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>d</v>
       </c>
-      <c r="S7" s="17" t="str">
+      <c r="S7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>l</v>
       </c>
-      <c r="T7" s="17" t="str">
+      <c r="T7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="U7" s="17" t="str">
+      <c r="U7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="V7" s="17" t="str">
+      <c r="V7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>j</v>
       </c>
-      <c r="W7" s="17" t="str">
+      <c r="W7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>v</v>
       </c>
-      <c r="X7" s="17" t="str">
+      <c r="X7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>s</v>
       </c>
-      <c r="Y7" s="17" t="str">
+      <c r="Y7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>d</v>
       </c>
-      <c r="Z7" s="17" t="str">
+      <c r="Z7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>l</v>
       </c>
-      <c r="AA7" s="17" t="str">
+      <c r="AA7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="AB7" s="17" t="str">
+      <c r="AB7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="AC7" s="17" t="str">
+      <c r="AC7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>j</v>
       </c>
-      <c r="AD7" s="17" t="str">
+      <c r="AD7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>v</v>
       </c>
-      <c r="AE7" s="17" t="str">
+      <c r="AE7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>s</v>
       </c>
-      <c r="AF7" s="17" t="str">
+      <c r="AF7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>d</v>
       </c>
-      <c r="AG7" s="17" t="str">
+      <c r="AG7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>l</v>
       </c>
-      <c r="AH7" s="17" t="str">
+      <c r="AH7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="AI7" s="17" t="str">
+      <c r="AI7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="AJ7" s="17" t="str">
+      <c r="AJ7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>j</v>
       </c>
-      <c r="AK7" s="17" t="str">
+      <c r="AK7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>v</v>
       </c>
-      <c r="AL7" s="17" t="str">
+      <c r="AL7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>s</v>
       </c>
-      <c r="AM7" s="17" t="str">
+      <c r="AM7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>d</v>
       </c>
-      <c r="AN7" s="17" t="str">
+      <c r="AN7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>l</v>
       </c>
-      <c r="AO7" s="17" t="str">
+      <c r="AO7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="AP7" s="17" t="str">
+      <c r="AP7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="AQ7" s="17" t="str">
+      <c r="AQ7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>j</v>
       </c>
-      <c r="AR7" s="17" t="str">
+      <c r="AR7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>v</v>
       </c>
-      <c r="AS7" s="17" t="str">
+      <c r="AS7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>s</v>
       </c>
-      <c r="AT7" s="17" t="str">
+      <c r="AT7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>d</v>
       </c>
-      <c r="AU7" s="17" t="str">
+      <c r="AU7" s="16" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>l</v>
       </c>
-      <c r="AV7" s="17" t="str">
+      <c r="AV7" s="16" t="str">
         <f t="shared" ref="AV7:BO7" ca="1" si="5">LEFT(TEXT(AV5,"ddd"),1)</f>
         <v>m</v>
       </c>
-      <c r="AW7" s="17" t="str">
+      <c r="AW7" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>m</v>
       </c>
-      <c r="AX7" s="17" t="str">
+      <c r="AX7" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>j</v>
       </c>
-      <c r="AY7" s="17" t="str">
+      <c r="AY7" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>v</v>
       </c>
-      <c r="AZ7" s="17" t="str">
+      <c r="AZ7" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>s</v>
       </c>
-      <c r="BA7" s="17" t="str">
+      <c r="BA7" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>d</v>
       </c>
-      <c r="BB7" s="17" t="str">
+      <c r="BB7" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>l</v>
       </c>
-      <c r="BC7" s="17" t="str">
+      <c r="BC7" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>m</v>
       </c>
-      <c r="BD7" s="17" t="str">
+      <c r="BD7" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>m</v>
       </c>
-      <c r="BE7" s="17" t="str">
+      <c r="BE7" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>j</v>
       </c>
-      <c r="BF7" s="17" t="str">
+      <c r="BF7" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>v</v>
       </c>
-      <c r="BG7" s="17" t="str">
+      <c r="BG7" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>s</v>
       </c>
-      <c r="BH7" s="17" t="str">
+      <c r="BH7" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>d</v>
       </c>
-      <c r="BI7" s="17" t="str">
+      <c r="BI7" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>l</v>
       </c>
-      <c r="BJ7" s="17" t="str">
+      <c r="BJ7" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>m</v>
       </c>
-      <c r="BK7" s="17" t="str">
+      <c r="BK7" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>m</v>
       </c>
-      <c r="BL7" s="17" t="str">
+      <c r="BL7" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>j</v>
       </c>
-      <c r="BM7" s="17" t="str">
+      <c r="BM7" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>v</v>
       </c>
-      <c r="BN7" s="17" t="str">
+      <c r="BN7" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>s</v>
       </c>
-      <c r="BO7" s="17" t="str">
+      <c r="BO7" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>d</v>
       </c>
@@ -3043,3502 +3122,4369 @@
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="43" t="str">
+      <c r="B8" s="33"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="37" t="str">
         <f>IF(Hitos[[#This Row],[Tempo Real]]="","",Hitos[[#This Row],[Inicio]]+Hitos[[#This Row],[Tempo Real]])</f>
         <v/>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="25"/>
-      <c r="AG8" s="25"/>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="25"/>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="25"/>
-      <c r="AL8" s="25"/>
-      <c r="AM8" s="25"/>
-      <c r="AN8" s="25"/>
-      <c r="AO8" s="25"/>
-      <c r="AP8" s="25"/>
-      <c r="AQ8" s="25"/>
-      <c r="AR8" s="25"/>
-      <c r="AS8" s="25"/>
-      <c r="AT8" s="25"/>
-      <c r="AU8" s="25"/>
-      <c r="AV8" s="25"/>
-      <c r="AW8" s="25"/>
-      <c r="AX8" s="25"/>
-      <c r="AY8" s="25"/>
-      <c r="AZ8" s="25"/>
-      <c r="BA8" s="25"/>
-      <c r="BB8" s="25"/>
-      <c r="BC8" s="25"/>
-      <c r="BD8" s="25"/>
-      <c r="BE8" s="25"/>
-      <c r="BF8" s="25"/>
-      <c r="BG8" s="25"/>
-      <c r="BH8" s="25"/>
-      <c r="BI8" s="25"/>
-      <c r="BJ8" s="25"/>
-      <c r="BK8" s="25"/>
-      <c r="BL8" s="25"/>
-      <c r="BM8" s="25"/>
-      <c r="BN8" s="25"/>
-      <c r="BO8" s="25"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="22"/>
+      <c r="AQ8" s="22"/>
+      <c r="AR8" s="22"/>
+      <c r="AS8" s="22"/>
+      <c r="AT8" s="22"/>
+      <c r="AU8" s="22"/>
+      <c r="AV8" s="22"/>
+      <c r="AW8" s="22"/>
+      <c r="AX8" s="22"/>
+      <c r="AY8" s="22"/>
+      <c r="AZ8" s="22"/>
+      <c r="BA8" s="22"/>
+      <c r="BB8" s="22"/>
+      <c r="BC8" s="22"/>
+      <c r="BD8" s="22"/>
+      <c r="BE8" s="22"/>
+      <c r="BF8" s="22"/>
+      <c r="BG8" s="22"/>
+      <c r="BH8" s="22"/>
+      <c r="BI8" s="22"/>
+      <c r="BJ8" s="22"/>
+      <c r="BK8" s="22"/>
+      <c r="BL8" s="22"/>
+      <c r="BM8" s="22"/>
+      <c r="BN8" s="22"/>
+      <c r="BO8" s="22"/>
     </row>
     <row r="9" spans="1:67" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="59">
+      <c r="B9" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="51">
         <f>AVERAGE(E10:E14)</f>
         <v>1</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="50">
         <f>MIN(F10:F14)</f>
         <v>44088</v>
       </c>
-      <c r="G9" s="58">
+      <c r="G9" s="50">
         <f>MAX(G10:G14)</f>
         <v>44113</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="43">
         <v>6</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="39">
         <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
         <v>19</v>
       </c>
-      <c r="J9" s="46">
+      <c r="J9" s="39">
         <f>Hitos[[#This Row],[Fin]]-Hitos[[#This Row],[Inicio]]</f>
         <v>25</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="27" t="str">
+      <c r="K9" s="17"/>
+      <c r="L9" s="23" t="str">
         <f t="shared" ref="L9:U14" ca="1" si="6">IF(AND($C9="Objetivo",L$5&gt;=$F9,L$5&lt;=$F9+$J9-1),2,IF(AND($C9="Hito",L$5&gt;=$F9,L$5&lt;=$F9+$J9-1),1,""))</f>
         <v/>
       </c>
-      <c r="M9" s="27" t="str">
+      <c r="M9" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="N9" s="27" t="str">
+      <c r="N9" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="O9" s="27" t="str">
+      <c r="O9" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="P9" s="27" t="str">
+      <c r="P9" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="Q9" s="27" t="str">
+      <c r="Q9" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="R9" s="27" t="str">
+      <c r="R9" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="S9" s="27" t="str">
+      <c r="S9" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="T9" s="27" t="str">
+      <c r="T9" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="U9" s="27" t="str">
+      <c r="U9" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="V9" s="27" t="str">
+      <c r="V9" s="23" t="str">
         <f t="shared" ref="V9:AE14" ca="1" si="7">IF(AND($C9="Objetivo",V$5&gt;=$F9,V$5&lt;=$F9+$J9-1),2,IF(AND($C9="Hito",V$5&gt;=$F9,V$5&lt;=$F9+$J9-1),1,""))</f>
         <v/>
       </c>
-      <c r="W9" s="27" t="str">
+      <c r="W9" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X9" s="27" t="str">
+      <c r="X9" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y9" s="27" t="str">
+      <c r="Y9" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z9" s="27" t="str">
+      <c r="Z9" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AA9" s="27" t="str">
+      <c r="AA9" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AB9" s="27" t="str">
+      <c r="AB9" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AC9" s="27" t="str">
+      <c r="AC9" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AD9" s="27" t="str">
+      <c r="AD9" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AE9" s="27" t="str">
+      <c r="AE9" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AF9" s="27" t="str">
+      <c r="AF9" s="23" t="str">
         <f t="shared" ref="AF9:AO14" ca="1" si="8">IF(AND($C9="Objetivo",AF$5&gt;=$F9,AF$5&lt;=$F9+$J9-1),2,IF(AND($C9="Hito",AF$5&gt;=$F9,AF$5&lt;=$F9+$J9-1),1,""))</f>
         <v/>
       </c>
-      <c r="AG9" s="27" t="str">
+      <c r="AG9" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AH9" s="27" t="str">
+      <c r="AH9" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AI9" s="27" t="str">
+      <c r="AI9" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AJ9" s="27" t="str">
+      <c r="AJ9" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AK9" s="27" t="str">
+      <c r="AK9" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AL9" s="27" t="str">
+      <c r="AL9" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AM9" s="27" t="str">
+      <c r="AM9" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AN9" s="27" t="str">
+      <c r="AN9" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AO9" s="27" t="str">
+      <c r="AO9" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AP9" s="27" t="str">
+      <c r="AP9" s="23" t="str">
         <f t="shared" ref="AP9:AY14" ca="1" si="9">IF(AND($C9="Objetivo",AP$5&gt;=$F9,AP$5&lt;=$F9+$J9-1),2,IF(AND($C9="Hito",AP$5&gt;=$F9,AP$5&lt;=$F9+$J9-1),1,""))</f>
         <v/>
       </c>
-      <c r="AQ9" s="27" t="str">
+      <c r="AQ9" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AR9" s="27" t="str">
+      <c r="AR9" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AS9" s="27" t="str">
+      <c r="AS9" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AT9" s="27" t="str">
+      <c r="AT9" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AU9" s="27" t="str">
+      <c r="AU9" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AV9" s="27" t="str">
+      <c r="AV9" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AW9" s="27" t="str">
+      <c r="AW9" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AX9" s="27" t="str">
+      <c r="AX9" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AY9" s="27" t="str">
+      <c r="AY9" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AZ9" s="27" t="str">
+      <c r="AZ9" s="23" t="str">
         <f t="shared" ref="AZ9:BI14" ca="1" si="10">IF(AND($C9="Objetivo",AZ$5&gt;=$F9,AZ$5&lt;=$F9+$J9-1),2,IF(AND($C9="Hito",AZ$5&gt;=$F9,AZ$5&lt;=$F9+$J9-1),1,""))</f>
         <v/>
       </c>
-      <c r="BA9" s="27" t="str">
+      <c r="BA9" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BB9" s="27" t="str">
+      <c r="BB9" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BC9" s="27" t="str">
+      <c r="BC9" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BD9" s="27" t="str">
+      <c r="BD9" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BE9" s="27" t="str">
+      <c r="BE9" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BF9" s="27" t="str">
+      <c r="BF9" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BG9" s="27" t="str">
+      <c r="BG9" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BH9" s="27" t="str">
+      <c r="BH9" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BI9" s="27" t="str">
+      <c r="BI9" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BJ9" s="27" t="str">
+      <c r="BJ9" s="23" t="str">
         <f t="shared" ref="BJ9:BO14" ca="1" si="11">IF(AND($C9="Objetivo",BJ$5&gt;=$F9,BJ$5&lt;=$F9+$J9-1),2,IF(AND($C9="Hito",BJ$5&gt;=$F9,BJ$5&lt;=$F9+$J9-1),1,""))</f>
         <v/>
       </c>
-      <c r="BK9" s="27" t="str">
+      <c r="BK9" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BL9" s="27" t="str">
+      <c r="BL9" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BM9" s="27" t="str">
+      <c r="BM9" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BN9" s="27" t="str">
+      <c r="BN9" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BO9" s="27" t="str">
+      <c r="BO9" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
-      <c r="B10" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="60">
+      <c r="B10" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="52">
         <v>1</v>
       </c>
-      <c r="F10" s="57">
+      <c r="F10" s="49">
         <v>44088</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="49">
         <f>IF(Hitos[[#This Row],[Tempo Real]]="","",Hitos[[#This Row],[Inicio]]+Hitos[[#This Row],[Tempo Real]])</f>
         <v>44089</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="42">
         <v>1</v>
       </c>
-      <c r="I10" s="53" t="str">
+      <c r="I10" s="45" t="str">
         <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
         <v/>
       </c>
-      <c r="J10" s="47">
+      <c r="J10" s="40">
         <v>1</v>
       </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="27" t="str">
+      <c r="K10" s="17"/>
+      <c r="L10" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="M10" s="27" t="str">
+      <c r="M10" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="N10" s="27" t="str">
+      <c r="N10" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="O10" s="27" t="str">
+      <c r="O10" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="P10" s="27" t="str">
+      <c r="P10" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="Q10" s="27" t="str">
+      <c r="Q10" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="R10" s="27" t="str">
+      <c r="R10" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="S10" s="27" t="str">
+      <c r="S10" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="T10" s="27" t="str">
+      <c r="T10" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="U10" s="27" t="str">
+      <c r="U10" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="V10" s="27" t="str">
+      <c r="V10" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="W10" s="27" t="str">
+      <c r="W10" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X10" s="27" t="str">
+      <c r="X10" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y10" s="27" t="str">
+      <c r="Y10" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z10" s="27" t="str">
+      <c r="Z10" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AA10" s="27" t="str">
+      <c r="AA10" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AB10" s="27" t="str">
+      <c r="AB10" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AC10" s="27" t="str">
+      <c r="AC10" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AD10" s="27" t="str">
+      <c r="AD10" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AE10" s="27" t="str">
+      <c r="AE10" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AF10" s="27" t="str">
+      <c r="AF10" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AG10" s="27" t="str">
+      <c r="AG10" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AH10" s="27" t="str">
+      <c r="AH10" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AI10" s="27" t="str">
+      <c r="AI10" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AJ10" s="27" t="str">
+      <c r="AJ10" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AK10" s="27" t="str">
+      <c r="AK10" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AL10" s="27" t="str">
+      <c r="AL10" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AM10" s="27" t="str">
+      <c r="AM10" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AN10" s="27" t="str">
+      <c r="AN10" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AO10" s="27" t="str">
+      <c r="AO10" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AP10" s="27" t="str">
+      <c r="AP10" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AQ10" s="27" t="str">
+      <c r="AQ10" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AR10" s="27" t="str">
+      <c r="AR10" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AS10" s="27" t="str">
+      <c r="AS10" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AT10" s="27" t="str">
+      <c r="AT10" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AU10" s="27" t="str">
+      <c r="AU10" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AV10" s="27" t="str">
+      <c r="AV10" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AW10" s="27" t="str">
+      <c r="AW10" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AX10" s="27" t="str">
+      <c r="AX10" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AY10" s="27" t="str">
+      <c r="AY10" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AZ10" s="27" t="str">
+      <c r="AZ10" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BA10" s="27" t="str">
+      <c r="BA10" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BB10" s="27" t="str">
+      <c r="BB10" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BC10" s="27" t="str">
+      <c r="BC10" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BD10" s="27" t="str">
+      <c r="BD10" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BE10" s="27" t="str">
+      <c r="BE10" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BF10" s="27" t="str">
+      <c r="BF10" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BG10" s="27" t="str">
+      <c r="BG10" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BH10" s="27" t="str">
+      <c r="BH10" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BI10" s="27" t="str">
+      <c r="BI10" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BJ10" s="27" t="str">
+      <c r="BJ10" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BK10" s="27" t="str">
+      <c r="BK10" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BL10" s="27" t="str">
+      <c r="BL10" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BM10" s="27" t="str">
+      <c r="BM10" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BN10" s="27" t="str">
+      <c r="BN10" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BO10" s="27" t="str">
+      <c r="BO10" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
-      <c r="B11" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="60">
+      <c r="B11" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="52">
         <v>1</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="49">
         <v>44088</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="49">
         <f>IF(Hitos[[#This Row],[Tempo Real]]="","",Hitos[[#This Row],[Inicio]]+Hitos[[#This Row],[Tempo Real]])</f>
         <v>44089</v>
       </c>
-      <c r="H11" s="50">
+      <c r="H11" s="42">
         <v>1</v>
       </c>
-      <c r="I11" s="53" t="str">
+      <c r="I11" s="45" t="str">
         <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
         <v/>
       </c>
-      <c r="J11" s="47">
+      <c r="J11" s="40">
         <v>1</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="27" t="str">
+      <c r="K11" s="17"/>
+      <c r="L11" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="M11" s="27" t="str">
+      <c r="M11" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="N11" s="27" t="str">
+      <c r="N11" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="O11" s="27" t="str">
+      <c r="O11" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="P11" s="27" t="str">
+      <c r="P11" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="Q11" s="27" t="str">
+      <c r="Q11" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="R11" s="27" t="str">
+      <c r="R11" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="S11" s="27" t="str">
+      <c r="S11" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="T11" s="27" t="str">
+      <c r="T11" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="U11" s="27" t="str">
+      <c r="U11" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="V11" s="27" t="str">
+      <c r="V11" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="W11" s="27" t="str">
+      <c r="W11" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X11" s="27" t="str">
+      <c r="X11" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y11" s="27" t="str">
+      <c r="Y11" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z11" s="27" t="str">
+      <c r="Z11" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AA11" s="27" t="str">
+      <c r="AA11" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AB11" s="27" t="str">
+      <c r="AB11" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AC11" s="27" t="str">
+      <c r="AC11" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AD11" s="27" t="str">
+      <c r="AD11" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AE11" s="27" t="str">
+      <c r="AE11" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AF11" s="27" t="str">
+      <c r="AF11" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AG11" s="27" t="str">
+      <c r="AG11" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AH11" s="27" t="str">
+      <c r="AH11" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AI11" s="27" t="str">
+      <c r="AI11" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AJ11" s="27" t="str">
+      <c r="AJ11" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AK11" s="27" t="str">
+      <c r="AK11" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AL11" s="27" t="str">
+      <c r="AL11" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AM11" s="27" t="str">
+      <c r="AM11" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AN11" s="27" t="str">
+      <c r="AN11" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AO11" s="27" t="str">
+      <c r="AO11" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AP11" s="27" t="str">
+      <c r="AP11" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AQ11" s="27" t="str">
+      <c r="AQ11" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AR11" s="27" t="str">
+      <c r="AR11" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AS11" s="27" t="str">
+      <c r="AS11" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AT11" s="27" t="str">
+      <c r="AT11" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AU11" s="27" t="str">
+      <c r="AU11" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AV11" s="27" t="str">
+      <c r="AV11" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AW11" s="27" t="str">
+      <c r="AW11" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AX11" s="27" t="str">
+      <c r="AX11" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AY11" s="27" t="str">
+      <c r="AY11" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AZ11" s="27" t="str">
+      <c r="AZ11" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BA11" s="27" t="str">
+      <c r="BA11" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BB11" s="27" t="str">
+      <c r="BB11" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BC11" s="27" t="str">
+      <c r="BC11" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BD11" s="27" t="str">
+      <c r="BD11" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BE11" s="27" t="str">
+      <c r="BE11" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BF11" s="27" t="str">
+      <c r="BF11" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BG11" s="27" t="str">
+      <c r="BG11" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BH11" s="27" t="str">
+      <c r="BH11" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BI11" s="27" t="str">
+      <c r="BI11" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BJ11" s="27" t="str">
+      <c r="BJ11" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BK11" s="27" t="str">
+      <c r="BK11" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BL11" s="27" t="str">
+      <c r="BL11" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BM11" s="27" t="str">
+      <c r="BM11" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BN11" s="27" t="str">
+      <c r="BN11" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BO11" s="27" t="str">
+      <c r="BO11" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="60">
+      <c r="B12" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="52">
         <f>AVERAGE(E13:E16)</f>
         <v>1</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="49">
         <v>44095</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="49">
         <f>MAX(G13:G16)</f>
         <v>44113</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="42">
         <v>6</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="45">
         <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
         <v>12</v>
       </c>
-      <c r="J12" s="47">
+      <c r="J12" s="40">
         <f>Hitos[[#This Row],[Fin]]-Hitos[[#This Row],[Inicio]]</f>
         <v>18</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="27" t="str">
+      <c r="K12" s="17"/>
+      <c r="L12" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="M12" s="27" t="str">
+      <c r="M12" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="N12" s="27" t="str">
+      <c r="N12" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="O12" s="27" t="str">
+      <c r="O12" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="P12" s="27" t="str">
+      <c r="P12" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="Q12" s="27" t="str">
+      <c r="Q12" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="R12" s="27" t="str">
+      <c r="R12" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="S12" s="27" t="str">
+      <c r="S12" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="T12" s="27" t="str">
+      <c r="T12" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="U12" s="27" t="str">
+      <c r="U12" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="V12" s="27" t="str">
+      <c r="V12" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="W12" s="27" t="str">
+      <c r="W12" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X12" s="27" t="str">
+      <c r="X12" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y12" s="27" t="str">
+      <c r="Y12" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z12" s="27" t="str">
+      <c r="Z12" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AA12" s="27" t="str">
+      <c r="AA12" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AB12" s="27" t="str">
+      <c r="AB12" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AC12" s="27" t="str">
+      <c r="AC12" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AD12" s="27" t="str">
+      <c r="AD12" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AE12" s="27" t="str">
+      <c r="AE12" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AF12" s="27" t="str">
+      <c r="AF12" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AG12" s="27" t="str">
+      <c r="AG12" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AH12" s="27" t="str">
+      <c r="AH12" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AI12" s="27" t="str">
+      <c r="AI12" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AJ12" s="27" t="str">
+      <c r="AJ12" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AK12" s="27" t="str">
+      <c r="AK12" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AL12" s="27" t="str">
+      <c r="AL12" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AM12" s="27" t="str">
+      <c r="AM12" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AN12" s="27" t="str">
+      <c r="AN12" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AO12" s="27" t="str">
+      <c r="AO12" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AP12" s="27" t="str">
+      <c r="AP12" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AQ12" s="27" t="str">
+      <c r="AQ12" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AR12" s="27" t="str">
+      <c r="AR12" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AS12" s="27" t="str">
+      <c r="AS12" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AT12" s="27" t="str">
+      <c r="AT12" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AU12" s="27" t="str">
+      <c r="AU12" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AV12" s="27" t="str">
+      <c r="AV12" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AW12" s="27" t="str">
+      <c r="AW12" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AX12" s="27" t="str">
+      <c r="AX12" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AY12" s="27" t="str">
+      <c r="AY12" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AZ12" s="27" t="str">
+      <c r="AZ12" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BA12" s="27" t="str">
+      <c r="BA12" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BB12" s="27" t="str">
+      <c r="BB12" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BC12" s="27" t="str">
+      <c r="BC12" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BD12" s="27" t="str">
+      <c r="BD12" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BE12" s="27" t="str">
+      <c r="BE12" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BF12" s="27" t="str">
+      <c r="BF12" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BG12" s="27" t="str">
+      <c r="BG12" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BH12" s="27" t="str">
+      <c r="BH12" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BI12" s="27" t="str">
+      <c r="BI12" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BJ12" s="27" t="str">
+      <c r="BJ12" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BK12" s="27" t="str">
+      <c r="BK12" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BL12" s="27" t="str">
+      <c r="BL12" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BM12" s="27" t="str">
+      <c r="BM12" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BN12" s="27" t="str">
+      <c r="BN12" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BO12" s="27" t="str">
+      <c r="BO12" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="60">
+      <c r="B13" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="52">
         <v>1</v>
       </c>
-      <c r="F13" s="57">
+      <c r="F13" s="49">
         <v>44095</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="49">
         <f>IF(Hitos[[#This Row],[Tempo Real]]="","",Hitos[[#This Row],[Inicio]]+Hitos[[#This Row],[Tempo Real]])</f>
         <v>44096</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="42">
         <v>6</v>
       </c>
-      <c r="I13" s="53" t="str">
+      <c r="I13" s="45" t="str">
         <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
         <v/>
       </c>
-      <c r="J13" s="47">
+      <c r="J13" s="40">
         <v>1</v>
       </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="27" t="str">
+      <c r="K13" s="17"/>
+      <c r="L13" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="M13" s="27" t="str">
+      <c r="M13" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="N13" s="27" t="str">
+      <c r="N13" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="O13" s="27" t="str">
+      <c r="O13" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="P13" s="27" t="str">
+      <c r="P13" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="Q13" s="27" t="str">
+      <c r="Q13" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="R13" s="27" t="str">
+      <c r="R13" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="S13" s="27" t="str">
+      <c r="S13" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="T13" s="27" t="str">
+      <c r="T13" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="U13" s="27" t="str">
+      <c r="U13" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="V13" s="27" t="str">
+      <c r="V13" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="W13" s="27" t="str">
+      <c r="W13" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X13" s="27" t="str">
+      <c r="X13" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y13" s="27" t="str">
+      <c r="Y13" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z13" s="27" t="str">
+      <c r="Z13" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AA13" s="27" t="str">
+      <c r="AA13" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AB13" s="27" t="str">
+      <c r="AB13" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AC13" s="27" t="str">
+      <c r="AC13" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AD13" s="27" t="str">
+      <c r="AD13" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AE13" s="27" t="str">
+      <c r="AE13" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AF13" s="27" t="str">
+      <c r="AF13" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AG13" s="27" t="str">
+      <c r="AG13" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AH13" s="27" t="str">
+      <c r="AH13" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AI13" s="27" t="str">
+      <c r="AI13" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AJ13" s="27" t="str">
+      <c r="AJ13" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AK13" s="27" t="str">
+      <c r="AK13" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AL13" s="27" t="str">
+      <c r="AL13" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AM13" s="27" t="str">
+      <c r="AM13" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AN13" s="27" t="str">
+      <c r="AN13" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AO13" s="27" t="str">
+      <c r="AO13" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AP13" s="27" t="str">
+      <c r="AP13" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AQ13" s="27" t="str">
+      <c r="AQ13" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AR13" s="27" t="str">
+      <c r="AR13" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AS13" s="27" t="str">
+      <c r="AS13" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AT13" s="27" t="str">
+      <c r="AT13" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AU13" s="27" t="str">
+      <c r="AU13" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AV13" s="27" t="str">
+      <c r="AV13" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AW13" s="27" t="str">
+      <c r="AW13" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AX13" s="27" t="str">
+      <c r="AX13" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AY13" s="27" t="str">
+      <c r="AY13" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AZ13" s="27" t="str">
+      <c r="AZ13" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BA13" s="27" t="str">
+      <c r="BA13" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BB13" s="27" t="str">
+      <c r="BB13" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BC13" s="27" t="str">
+      <c r="BC13" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BD13" s="27" t="str">
+      <c r="BD13" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BE13" s="27" t="str">
+      <c r="BE13" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BF13" s="27" t="str">
+      <c r="BF13" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BG13" s="27" t="str">
+      <c r="BG13" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BH13" s="27" t="str">
+      <c r="BH13" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BI13" s="27" t="str">
+      <c r="BI13" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BJ13" s="27" t="str">
+      <c r="BJ13" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BK13" s="27" t="str">
+      <c r="BK13" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BL13" s="27" t="str">
+      <c r="BL13" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BM13" s="27" t="str">
+      <c r="BM13" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BN13" s="27" t="str">
+      <c r="BN13" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BO13" s="27" t="str">
+      <c r="BO13" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
-      <c r="B14" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="60">
+      <c r="B14" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="52">
         <v>1</v>
       </c>
-      <c r="F14" s="57">
+      <c r="F14" s="49">
         <v>44096</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="49">
         <v>44105</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="42">
         <v>6</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="45">
         <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
         <v>3</v>
       </c>
-      <c r="J14" s="47">
+      <c r="J14" s="40">
         <f>Hitos[[#This Row],[Fin]]-Hitos[[#This Row],[Inicio]]</f>
         <v>9</v>
       </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="27" t="str">
+      <c r="K14" s="17"/>
+      <c r="L14" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="M14" s="27" t="str">
+      <c r="M14" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="N14" s="27" t="str">
+      <c r="N14" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="O14" s="27" t="str">
+      <c r="O14" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="P14" s="27" t="str">
+      <c r="P14" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="Q14" s="27" t="str">
+      <c r="Q14" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="R14" s="27" t="str">
+      <c r="R14" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="S14" s="27" t="str">
+      <c r="S14" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="T14" s="27" t="str">
+      <c r="T14" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="U14" s="27" t="str">
+      <c r="U14" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="V14" s="27" t="str">
+      <c r="V14" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="W14" s="27" t="str">
+      <c r="W14" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X14" s="27" t="str">
+      <c r="X14" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y14" s="27" t="str">
+      <c r="Y14" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z14" s="27" t="str">
+      <c r="Z14" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AA14" s="27" t="str">
+      <c r="AA14" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AB14" s="27" t="str">
+      <c r="AB14" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AC14" s="27" t="str">
+      <c r="AC14" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AD14" s="27" t="str">
+      <c r="AD14" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AE14" s="27" t="str">
+      <c r="AE14" s="23" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AF14" s="27" t="str">
+      <c r="AF14" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AG14" s="27" t="str">
+      <c r="AG14" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AH14" s="27" t="str">
+      <c r="AH14" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AI14" s="27" t="str">
+      <c r="AI14" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AJ14" s="27" t="str">
+      <c r="AJ14" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AK14" s="27" t="str">
+      <c r="AK14" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AL14" s="27" t="str">
+      <c r="AL14" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AM14" s="27" t="str">
+      <c r="AM14" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AN14" s="27" t="str">
+      <c r="AN14" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AO14" s="27" t="str">
+      <c r="AO14" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AP14" s="27" t="str">
+      <c r="AP14" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AQ14" s="27" t="str">
+      <c r="AQ14" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AR14" s="27" t="str">
+      <c r="AR14" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AS14" s="27" t="str">
+      <c r="AS14" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AT14" s="27" t="str">
+      <c r="AT14" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AU14" s="27" t="str">
+      <c r="AU14" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AV14" s="27" t="str">
+      <c r="AV14" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AW14" s="27" t="str">
+      <c r="AW14" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AX14" s="27" t="str">
+      <c r="AX14" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AY14" s="27" t="str">
+      <c r="AY14" s="23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AZ14" s="27" t="str">
+      <c r="AZ14" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BA14" s="27" t="str">
+      <c r="BA14" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BB14" s="27" t="str">
+      <c r="BB14" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BC14" s="27" t="str">
+      <c r="BC14" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BD14" s="27" t="str">
+      <c r="BD14" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BE14" s="27" t="str">
+      <c r="BE14" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BF14" s="27" t="str">
+      <c r="BF14" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BG14" s="27" t="str">
+      <c r="BG14" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BH14" s="27" t="str">
+      <c r="BH14" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BI14" s="27" t="str">
+      <c r="BI14" s="23" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BJ14" s="27" t="str">
+      <c r="BJ14" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BK14" s="27" t="str">
+      <c r="BK14" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BL14" s="27" t="str">
+      <c r="BL14" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BM14" s="27" t="str">
+      <c r="BM14" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BN14" s="27" t="str">
+      <c r="BN14" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BO14" s="27" t="str">
+      <c r="BO14" s="23" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="60">
+      <c r="B15" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="52">
         <v>1</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="49">
         <v>44096</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="37">
         <v>44113</v>
       </c>
-      <c r="H15" s="52">
+      <c r="H15" s="44">
         <v>6</v>
       </c>
-      <c r="I15" s="53">
+      <c r="I15" s="45">
         <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
         <v>11</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="21">
         <f>Hitos[[#This Row],[Fin]]-Hitos[[#This Row],[Inicio]]</f>
         <v>17</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="27"/>
-      <c r="AK15" s="27"/>
-      <c r="AL15" s="27"/>
-      <c r="AM15" s="27"/>
-      <c r="AN15" s="27"/>
-      <c r="AO15" s="27"/>
-      <c r="AP15" s="27"/>
-      <c r="AQ15" s="27"/>
-      <c r="AR15" s="27"/>
-      <c r="AS15" s="27"/>
-      <c r="AT15" s="27"/>
-      <c r="AU15" s="27"/>
-      <c r="AV15" s="27"/>
-      <c r="AW15" s="27"/>
-      <c r="AX15" s="27"/>
-      <c r="AY15" s="27"/>
-      <c r="AZ15" s="27"/>
-      <c r="BA15" s="27"/>
-      <c r="BB15" s="27"/>
-      <c r="BC15" s="27"/>
-      <c r="BD15" s="27"/>
-      <c r="BE15" s="27"/>
-      <c r="BF15" s="27"/>
-      <c r="BG15" s="27"/>
-      <c r="BH15" s="27"/>
-      <c r="BI15" s="27"/>
-      <c r="BJ15" s="27"/>
-      <c r="BK15" s="27"/>
-      <c r="BL15" s="27"/>
-      <c r="BM15" s="27"/>
-      <c r="BN15" s="27"/>
-      <c r="BO15" s="27"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="23"/>
+      <c r="AJ15" s="23"/>
+      <c r="AK15" s="23"/>
+      <c r="AL15" s="23"/>
+      <c r="AM15" s="23"/>
+      <c r="AN15" s="23"/>
+      <c r="AO15" s="23"/>
+      <c r="AP15" s="23"/>
+      <c r="AQ15" s="23"/>
+      <c r="AR15" s="23"/>
+      <c r="AS15" s="23"/>
+      <c r="AT15" s="23"/>
+      <c r="AU15" s="23"/>
+      <c r="AV15" s="23"/>
+      <c r="AW15" s="23"/>
+      <c r="AX15" s="23"/>
+      <c r="AY15" s="23"/>
+      <c r="AZ15" s="23"/>
+      <c r="BA15" s="23"/>
+      <c r="BB15" s="23"/>
+      <c r="BC15" s="23"/>
+      <c r="BD15" s="23"/>
+      <c r="BE15" s="23"/>
+      <c r="BF15" s="23"/>
+      <c r="BG15" s="23"/>
+      <c r="BH15" s="23"/>
+      <c r="BI15" s="23"/>
+      <c r="BJ15" s="23"/>
+      <c r="BK15" s="23"/>
+      <c r="BL15" s="23"/>
+      <c r="BM15" s="23"/>
+      <c r="BN15" s="23"/>
+      <c r="BO15" s="23"/>
     </row>
     <row r="16" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
-      <c r="B16" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="60">
+      <c r="B16" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="52">
         <v>1</v>
       </c>
-      <c r="F16" s="57">
+      <c r="F16" s="49">
         <v>44096</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="49">
         <f>IF(Hitos[[#This Row],[Tempo Real]]="","",Hitos[[#This Row],[Inicio]]+Hitos[[#This Row],[Tempo Real]])</f>
         <v>44098</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="42">
         <v>6</v>
       </c>
-      <c r="I16" s="53" t="str">
+      <c r="I16" s="45" t="str">
         <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
         <v/>
       </c>
-      <c r="J16" s="47">
+      <c r="J16" s="40">
         <v>2</v>
       </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="27"/>
-      <c r="AK16" s="27"/>
-      <c r="AL16" s="27"/>
-      <c r="AM16" s="27"/>
-      <c r="AN16" s="27"/>
-      <c r="AO16" s="27"/>
-      <c r="AP16" s="27"/>
-      <c r="AQ16" s="27"/>
-      <c r="AR16" s="27"/>
-      <c r="AS16" s="27"/>
-      <c r="AT16" s="27"/>
-      <c r="AU16" s="27"/>
-      <c r="AV16" s="27"/>
-      <c r="AW16" s="27"/>
-      <c r="AX16" s="27"/>
-      <c r="AY16" s="27"/>
-      <c r="AZ16" s="27"/>
-      <c r="BA16" s="27"/>
-      <c r="BB16" s="27"/>
-      <c r="BC16" s="27"/>
-      <c r="BD16" s="27"/>
-      <c r="BE16" s="27"/>
-      <c r="BF16" s="27"/>
-      <c r="BG16" s="27"/>
-      <c r="BH16" s="27"/>
-      <c r="BI16" s="27"/>
-      <c r="BJ16" s="27"/>
-      <c r="BK16" s="27"/>
-      <c r="BL16" s="27"/>
-      <c r="BM16" s="27"/>
-      <c r="BN16" s="27"/>
-      <c r="BO16" s="27"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="23"/>
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="23"/>
+      <c r="AL16" s="23"/>
+      <c r="AM16" s="23"/>
+      <c r="AN16" s="23"/>
+      <c r="AO16" s="23"/>
+      <c r="AP16" s="23"/>
+      <c r="AQ16" s="23"/>
+      <c r="AR16" s="23"/>
+      <c r="AS16" s="23"/>
+      <c r="AT16" s="23"/>
+      <c r="AU16" s="23"/>
+      <c r="AV16" s="23"/>
+      <c r="AW16" s="23"/>
+      <c r="AX16" s="23"/>
+      <c r="AY16" s="23"/>
+      <c r="AZ16" s="23"/>
+      <c r="BA16" s="23"/>
+      <c r="BB16" s="23"/>
+      <c r="BC16" s="23"/>
+      <c r="BD16" s="23"/>
+      <c r="BE16" s="23"/>
+      <c r="BF16" s="23"/>
+      <c r="BG16" s="23"/>
+      <c r="BH16" s="23"/>
+      <c r="BI16" s="23"/>
+      <c r="BJ16" s="23"/>
+      <c r="BK16" s="23"/>
+      <c r="BL16" s="23"/>
+      <c r="BM16" s="23"/>
+      <c r="BN16" s="23"/>
+      <c r="BO16" s="23"/>
     </row>
     <row r="17" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="60">
+      <c r="B17" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="52">
         <v>1</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="49">
         <v>44096</v>
       </c>
-      <c r="G17" s="43">
+      <c r="G17" s="37">
         <f ca="1">TODAY()</f>
-        <v>44121</v>
-      </c>
-      <c r="H17" s="50">
+        <v>44123</v>
+      </c>
+      <c r="H17" s="42">
         <v>6</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="45">
         <f ca="1">IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
-        <v>19</v>
-      </c>
-      <c r="J17" s="24">
+        <v>21</v>
+      </c>
+      <c r="J17" s="21">
         <f ca="1">Hitos[[#This Row],[Fin]]-Hitos[[#This Row],[Inicio]]</f>
-        <v>25</v>
-      </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="27"/>
-      <c r="AK17" s="27"/>
-      <c r="AL17" s="27"/>
-      <c r="AM17" s="27"/>
-      <c r="AN17" s="27"/>
-      <c r="AO17" s="27"/>
-      <c r="AP17" s="27"/>
-      <c r="AQ17" s="27"/>
-      <c r="AR17" s="27"/>
-      <c r="AS17" s="27"/>
-      <c r="AT17" s="27"/>
-      <c r="AU17" s="27"/>
-      <c r="AV17" s="27"/>
-      <c r="AW17" s="27"/>
-      <c r="AX17" s="27"/>
-      <c r="AY17" s="27"/>
-      <c r="AZ17" s="27"/>
-      <c r="BA17" s="27"/>
-      <c r="BB17" s="27"/>
-      <c r="BC17" s="27"/>
-      <c r="BD17" s="27"/>
-      <c r="BE17" s="27"/>
-      <c r="BF17" s="27"/>
-      <c r="BG17" s="27"/>
-      <c r="BH17" s="27"/>
-      <c r="BI17" s="27"/>
-      <c r="BJ17" s="27"/>
-      <c r="BK17" s="27"/>
-      <c r="BL17" s="27"/>
-      <c r="BM17" s="27"/>
-      <c r="BN17" s="27"/>
-      <c r="BO17" s="27"/>
+        <v>27</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="23"/>
+      <c r="AH17" s="23"/>
+      <c r="AI17" s="23"/>
+      <c r="AJ17" s="23"/>
+      <c r="AK17" s="23"/>
+      <c r="AL17" s="23"/>
+      <c r="AM17" s="23"/>
+      <c r="AN17" s="23"/>
+      <c r="AO17" s="23"/>
+      <c r="AP17" s="23"/>
+      <c r="AQ17" s="23"/>
+      <c r="AR17" s="23"/>
+      <c r="AS17" s="23"/>
+      <c r="AT17" s="23"/>
+      <c r="AU17" s="23"/>
+      <c r="AV17" s="23"/>
+      <c r="AW17" s="23"/>
+      <c r="AX17" s="23"/>
+      <c r="AY17" s="23"/>
+      <c r="AZ17" s="23"/>
+      <c r="BA17" s="23"/>
+      <c r="BB17" s="23"/>
+      <c r="BC17" s="23"/>
+      <c r="BD17" s="23"/>
+      <c r="BE17" s="23"/>
+      <c r="BF17" s="23"/>
+      <c r="BG17" s="23"/>
+      <c r="BH17" s="23"/>
+      <c r="BI17" s="23"/>
+      <c r="BJ17" s="23"/>
+      <c r="BK17" s="23"/>
+      <c r="BL17" s="23"/>
+      <c r="BM17" s="23"/>
+      <c r="BN17" s="23"/>
+      <c r="BO17" s="23"/>
     </row>
     <row r="18" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="59">
+      <c r="B18" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="51">
         <f>AVERAGE(E19:E25)</f>
         <v>1</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="50">
         <f>MIN(F19:F25)</f>
         <v>44104</v>
       </c>
-      <c r="G18" s="58">
-        <f ca="1">MAX(G19:G25)</f>
+      <c r="G18" s="50">
+        <f>MAX(G19:G25)</f>
         <v>44121</v>
       </c>
-      <c r="H18" s="51">
+      <c r="H18" s="43">
         <v>12</v>
       </c>
-      <c r="I18" s="53" t="str">
+      <c r="I18" s="45" t="str">
         <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
         <v/>
       </c>
-      <c r="J18" s="47">
+      <c r="J18" s="40">
         <v>12</v>
       </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="27"/>
-      <c r="AJ18" s="27"/>
-      <c r="AK18" s="27"/>
-      <c r="AL18" s="27"/>
-      <c r="AM18" s="27"/>
-      <c r="AN18" s="27"/>
-      <c r="AO18" s="27"/>
-      <c r="AP18" s="27"/>
-      <c r="AQ18" s="27"/>
-      <c r="AR18" s="27"/>
-      <c r="AS18" s="27"/>
-      <c r="AT18" s="27"/>
-      <c r="AU18" s="27"/>
-      <c r="AV18" s="27"/>
-      <c r="AW18" s="27"/>
-      <c r="AX18" s="27"/>
-      <c r="AY18" s="27"/>
-      <c r="AZ18" s="27"/>
-      <c r="BA18" s="27"/>
-      <c r="BB18" s="27"/>
-      <c r="BC18" s="27"/>
-      <c r="BD18" s="27"/>
-      <c r="BE18" s="27"/>
-      <c r="BF18" s="27"/>
-      <c r="BG18" s="27"/>
-      <c r="BH18" s="27"/>
-      <c r="BI18" s="27"/>
-      <c r="BJ18" s="27"/>
-      <c r="BK18" s="27"/>
-      <c r="BL18" s="27"/>
-      <c r="BM18" s="27"/>
-      <c r="BN18" s="27"/>
-      <c r="BO18" s="27"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="23"/>
+      <c r="AJ18" s="23"/>
+      <c r="AK18" s="23"/>
+      <c r="AL18" s="23"/>
+      <c r="AM18" s="23"/>
+      <c r="AN18" s="23"/>
+      <c r="AO18" s="23"/>
+      <c r="AP18" s="23"/>
+      <c r="AQ18" s="23"/>
+      <c r="AR18" s="23"/>
+      <c r="AS18" s="23"/>
+      <c r="AT18" s="23"/>
+      <c r="AU18" s="23"/>
+      <c r="AV18" s="23"/>
+      <c r="AW18" s="23"/>
+      <c r="AX18" s="23"/>
+      <c r="AY18" s="23"/>
+      <c r="AZ18" s="23"/>
+      <c r="BA18" s="23"/>
+      <c r="BB18" s="23"/>
+      <c r="BC18" s="23"/>
+      <c r="BD18" s="23"/>
+      <c r="BE18" s="23"/>
+      <c r="BF18" s="23"/>
+      <c r="BG18" s="23"/>
+      <c r="BH18" s="23"/>
+      <c r="BI18" s="23"/>
+      <c r="BJ18" s="23"/>
+      <c r="BK18" s="23"/>
+      <c r="BL18" s="23"/>
+      <c r="BM18" s="23"/>
+      <c r="BN18" s="23"/>
+      <c r="BO18" s="23"/>
     </row>
     <row r="19" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="60">
+      <c r="B19" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="52">
         <v>1</v>
       </c>
-      <c r="F19" s="57">
+      <c r="F19" s="49">
         <v>44104</v>
       </c>
-      <c r="G19" s="57">
+      <c r="G19" s="49">
         <v>44121</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19" s="42">
         <v>12</v>
       </c>
-      <c r="I19" s="53">
+      <c r="I19" s="45">
         <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
         <v>5</v>
       </c>
-      <c r="J19" s="47">
+      <c r="J19" s="40">
         <f>Hitos[[#This Row],[Fin]]-Hitos[[#This Row],[Inicio]]</f>
         <v>17</v>
       </c>
-      <c r="K19" s="18"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="27"/>
-      <c r="AH19" s="27"/>
-      <c r="AI19" s="27"/>
-      <c r="AJ19" s="27"/>
-      <c r="AK19" s="27"/>
-      <c r="AL19" s="27"/>
-      <c r="AM19" s="27"/>
-      <c r="AN19" s="27"/>
-      <c r="AO19" s="27"/>
-      <c r="AP19" s="27"/>
-      <c r="AQ19" s="27"/>
-      <c r="AR19" s="27"/>
-      <c r="AS19" s="27"/>
-      <c r="AT19" s="27"/>
-      <c r="AU19" s="27"/>
-      <c r="AV19" s="27"/>
-      <c r="AW19" s="27"/>
-      <c r="AX19" s="27"/>
-      <c r="AY19" s="27"/>
-      <c r="AZ19" s="27"/>
-      <c r="BA19" s="27"/>
-      <c r="BB19" s="27"/>
-      <c r="BC19" s="27"/>
-      <c r="BD19" s="27"/>
-      <c r="BE19" s="27"/>
-      <c r="BF19" s="27"/>
-      <c r="BG19" s="27"/>
-      <c r="BH19" s="27"/>
-      <c r="BI19" s="27"/>
-      <c r="BJ19" s="27"/>
-      <c r="BK19" s="27"/>
-      <c r="BL19" s="27"/>
-      <c r="BM19" s="27"/>
-      <c r="BN19" s="27"/>
-      <c r="BO19" s="27"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="23"/>
+      <c r="AJ19" s="23"/>
+      <c r="AK19" s="23"/>
+      <c r="AL19" s="23"/>
+      <c r="AM19" s="23"/>
+      <c r="AN19" s="23"/>
+      <c r="AO19" s="23"/>
+      <c r="AP19" s="23"/>
+      <c r="AQ19" s="23"/>
+      <c r="AR19" s="23"/>
+      <c r="AS19" s="23"/>
+      <c r="AT19" s="23"/>
+      <c r="AU19" s="23"/>
+      <c r="AV19" s="23"/>
+      <c r="AW19" s="23"/>
+      <c r="AX19" s="23"/>
+      <c r="AY19" s="23"/>
+      <c r="AZ19" s="23"/>
+      <c r="BA19" s="23"/>
+      <c r="BB19" s="23"/>
+      <c r="BC19" s="23"/>
+      <c r="BD19" s="23"/>
+      <c r="BE19" s="23"/>
+      <c r="BF19" s="23"/>
+      <c r="BG19" s="23"/>
+      <c r="BH19" s="23"/>
+      <c r="BI19" s="23"/>
+      <c r="BJ19" s="23"/>
+      <c r="BK19" s="23"/>
+      <c r="BL19" s="23"/>
+      <c r="BM19" s="23"/>
+      <c r="BN19" s="23"/>
+      <c r="BO19" s="23"/>
     </row>
     <row r="20" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="60">
+      <c r="B20" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="52">
         <v>1</v>
       </c>
-      <c r="F20" s="57">
+      <c r="F20" s="49">
         <v>44105</v>
       </c>
-      <c r="G20" s="57">
+      <c r="G20" s="49">
         <v>44106</v>
       </c>
-      <c r="H20" s="50">
+      <c r="H20" s="42">
         <v>2</v>
       </c>
-      <c r="I20" s="53" t="str">
+      <c r="I20" s="45" t="str">
         <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
         <v/>
       </c>
-      <c r="J20" s="47">
+      <c r="J20" s="40">
         <v>2</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="27"/>
-      <c r="AJ20" s="27"/>
-      <c r="AK20" s="27"/>
-      <c r="AL20" s="27"/>
-      <c r="AM20" s="27"/>
-      <c r="AN20" s="27"/>
-      <c r="AO20" s="27"/>
-      <c r="AP20" s="27"/>
-      <c r="AQ20" s="27"/>
-      <c r="AR20" s="27"/>
-      <c r="AS20" s="27"/>
-      <c r="AT20" s="27"/>
-      <c r="AU20" s="27"/>
-      <c r="AV20" s="27"/>
-      <c r="AW20" s="27"/>
-      <c r="AX20" s="27"/>
-      <c r="AY20" s="27"/>
-      <c r="AZ20" s="27"/>
-      <c r="BA20" s="27"/>
-      <c r="BB20" s="27"/>
-      <c r="BC20" s="27"/>
-      <c r="BD20" s="27"/>
-      <c r="BE20" s="27"/>
-      <c r="BF20" s="27"/>
-      <c r="BG20" s="27"/>
-      <c r="BH20" s="27"/>
-      <c r="BI20" s="27"/>
-      <c r="BJ20" s="27"/>
-      <c r="BK20" s="27"/>
-      <c r="BL20" s="27"/>
-      <c r="BM20" s="27"/>
-      <c r="BN20" s="27"/>
-      <c r="BO20" s="27"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="23"/>
+      <c r="AI20" s="23"/>
+      <c r="AJ20" s="23"/>
+      <c r="AK20" s="23"/>
+      <c r="AL20" s="23"/>
+      <c r="AM20" s="23"/>
+      <c r="AN20" s="23"/>
+      <c r="AO20" s="23"/>
+      <c r="AP20" s="23"/>
+      <c r="AQ20" s="23"/>
+      <c r="AR20" s="23"/>
+      <c r="AS20" s="23"/>
+      <c r="AT20" s="23"/>
+      <c r="AU20" s="23"/>
+      <c r="AV20" s="23"/>
+      <c r="AW20" s="23"/>
+      <c r="AX20" s="23"/>
+      <c r="AY20" s="23"/>
+      <c r="AZ20" s="23"/>
+      <c r="BA20" s="23"/>
+      <c r="BB20" s="23"/>
+      <c r="BC20" s="23"/>
+      <c r="BD20" s="23"/>
+      <c r="BE20" s="23"/>
+      <c r="BF20" s="23"/>
+      <c r="BG20" s="23"/>
+      <c r="BH20" s="23"/>
+      <c r="BI20" s="23"/>
+      <c r="BJ20" s="23"/>
+      <c r="BK20" s="23"/>
+      <c r="BL20" s="23"/>
+      <c r="BM20" s="23"/>
+      <c r="BN20" s="23"/>
+      <c r="BO20" s="23"/>
     </row>
     <row r="21" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="60">
+      <c r="B21" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="52">
         <v>1</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="49">
         <v>44105</v>
       </c>
-      <c r="G21" s="57">
+      <c r="G21" s="49">
         <v>44121</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21" s="42">
         <v>12</v>
       </c>
-      <c r="I21" s="53">
+      <c r="I21" s="45">
         <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
         <v>4</v>
       </c>
-      <c r="J21" s="47">
+      <c r="J21" s="40">
         <f>Hitos[[#This Row],[Fin]]-Hitos[[#This Row],[Inicio]]</f>
         <v>16</v>
       </c>
-      <c r="K21" s="18"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="27"/>
-      <c r="AI21" s="27"/>
-      <c r="AJ21" s="27"/>
-      <c r="AK21" s="27"/>
-      <c r="AL21" s="27"/>
-      <c r="AM21" s="27"/>
-      <c r="AN21" s="27"/>
-      <c r="AO21" s="27"/>
-      <c r="AP21" s="27"/>
-      <c r="AQ21" s="27"/>
-      <c r="AR21" s="27"/>
-      <c r="AS21" s="27"/>
-      <c r="AT21" s="27"/>
-      <c r="AU21" s="27"/>
-      <c r="AV21" s="27"/>
-      <c r="AW21" s="27"/>
-      <c r="AX21" s="27"/>
-      <c r="AY21" s="27"/>
-      <c r="AZ21" s="27"/>
-      <c r="BA21" s="27"/>
-      <c r="BB21" s="27"/>
-      <c r="BC21" s="27"/>
-      <c r="BD21" s="27"/>
-      <c r="BE21" s="27"/>
-      <c r="BF21" s="27"/>
-      <c r="BG21" s="27"/>
-      <c r="BH21" s="27"/>
-      <c r="BI21" s="27"/>
-      <c r="BJ21" s="27"/>
-      <c r="BK21" s="27"/>
-      <c r="BL21" s="27"/>
-      <c r="BM21" s="27"/>
-      <c r="BN21" s="27"/>
-      <c r="BO21" s="27"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="23"/>
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="23"/>
+      <c r="AL21" s="23"/>
+      <c r="AM21" s="23"/>
+      <c r="AN21" s="23"/>
+      <c r="AO21" s="23"/>
+      <c r="AP21" s="23"/>
+      <c r="AQ21" s="23"/>
+      <c r="AR21" s="23"/>
+      <c r="AS21" s="23"/>
+      <c r="AT21" s="23"/>
+      <c r="AU21" s="23"/>
+      <c r="AV21" s="23"/>
+      <c r="AW21" s="23"/>
+      <c r="AX21" s="23"/>
+      <c r="AY21" s="23"/>
+      <c r="AZ21" s="23"/>
+      <c r="BA21" s="23"/>
+      <c r="BB21" s="23"/>
+      <c r="BC21" s="23"/>
+      <c r="BD21" s="23"/>
+      <c r="BE21" s="23"/>
+      <c r="BF21" s="23"/>
+      <c r="BG21" s="23"/>
+      <c r="BH21" s="23"/>
+      <c r="BI21" s="23"/>
+      <c r="BJ21" s="23"/>
+      <c r="BK21" s="23"/>
+      <c r="BL21" s="23"/>
+      <c r="BM21" s="23"/>
+      <c r="BN21" s="23"/>
+      <c r="BO21" s="23"/>
     </row>
     <row r="22" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="B22" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="60">
+      <c r="B22" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="52">
         <v>1</v>
       </c>
-      <c r="F22" s="57">
+      <c r="F22" s="49">
         <v>44105</v>
       </c>
-      <c r="G22" s="57">
+      <c r="G22" s="49">
         <v>44118</v>
       </c>
-      <c r="H22" s="50">
+      <c r="H22" s="42">
         <v>12</v>
       </c>
-      <c r="I22" s="53">
+      <c r="I22" s="45">
         <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
         <v>1</v>
       </c>
-      <c r="J22" s="47">
+      <c r="J22" s="40">
         <f>Hitos[[#This Row],[Fin]]-Hitos[[#This Row],[Inicio]]</f>
         <v>13</v>
       </c>
-      <c r="K22" s="18"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="27"/>
-      <c r="AJ22" s="27"/>
-      <c r="AK22" s="27"/>
-      <c r="AL22" s="27"/>
-      <c r="AM22" s="27"/>
-      <c r="AN22" s="27"/>
-      <c r="AO22" s="27"/>
-      <c r="AP22" s="27"/>
-      <c r="AQ22" s="27"/>
-      <c r="AR22" s="27"/>
-      <c r="AS22" s="27"/>
-      <c r="AT22" s="27"/>
-      <c r="AU22" s="27"/>
-      <c r="AV22" s="27"/>
-      <c r="AW22" s="27"/>
-      <c r="AX22" s="27"/>
-      <c r="AY22" s="27"/>
-      <c r="AZ22" s="27"/>
-      <c r="BA22" s="27"/>
-      <c r="BB22" s="27"/>
-      <c r="BC22" s="27"/>
-      <c r="BD22" s="27"/>
-      <c r="BE22" s="27"/>
-      <c r="BF22" s="27"/>
-      <c r="BG22" s="27"/>
-      <c r="BH22" s="27"/>
-      <c r="BI22" s="27"/>
-      <c r="BJ22" s="27"/>
-      <c r="BK22" s="27"/>
-      <c r="BL22" s="27"/>
-      <c r="BM22" s="27"/>
-      <c r="BN22" s="27"/>
-      <c r="BO22" s="27"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="23"/>
+      <c r="AL22" s="23"/>
+      <c r="AM22" s="23"/>
+      <c r="AN22" s="23"/>
+      <c r="AO22" s="23"/>
+      <c r="AP22" s="23"/>
+      <c r="AQ22" s="23"/>
+      <c r="AR22" s="23"/>
+      <c r="AS22" s="23"/>
+      <c r="AT22" s="23"/>
+      <c r="AU22" s="23"/>
+      <c r="AV22" s="23"/>
+      <c r="AW22" s="23"/>
+      <c r="AX22" s="23"/>
+      <c r="AY22" s="23"/>
+      <c r="AZ22" s="23"/>
+      <c r="BA22" s="23"/>
+      <c r="BB22" s="23"/>
+      <c r="BC22" s="23"/>
+      <c r="BD22" s="23"/>
+      <c r="BE22" s="23"/>
+      <c r="BF22" s="23"/>
+      <c r="BG22" s="23"/>
+      <c r="BH22" s="23"/>
+      <c r="BI22" s="23"/>
+      <c r="BJ22" s="23"/>
+      <c r="BK22" s="23"/>
+      <c r="BL22" s="23"/>
+      <c r="BM22" s="23"/>
+      <c r="BN22" s="23"/>
+      <c r="BO22" s="23"/>
     </row>
     <row r="23" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="60">
+      <c r="B23" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="52">
         <v>1</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="49">
         <v>44105</v>
       </c>
-      <c r="G23" s="57">
+      <c r="G23" s="49">
         <v>44118</v>
       </c>
-      <c r="H23" s="50">
+      <c r="H23" s="42">
         <v>12</v>
       </c>
-      <c r="I23" s="53">
+      <c r="I23" s="45">
         <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
         <v>1</v>
       </c>
-      <c r="J23" s="47">
+      <c r="J23" s="40">
         <f>Hitos[[#This Row],[Fin]]-Hitos[[#This Row],[Inicio]]</f>
         <v>13</v>
       </c>
-      <c r="K23" s="18"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="27"/>
-      <c r="AJ23" s="27"/>
-      <c r="AK23" s="27"/>
-      <c r="AL23" s="27"/>
-      <c r="AM23" s="27"/>
-      <c r="AN23" s="27"/>
-      <c r="AO23" s="27"/>
-      <c r="AP23" s="27"/>
-      <c r="AQ23" s="27"/>
-      <c r="AR23" s="27"/>
-      <c r="AS23" s="27"/>
-      <c r="AT23" s="27"/>
-      <c r="AU23" s="27"/>
-      <c r="AV23" s="27"/>
-      <c r="AW23" s="27"/>
-      <c r="AX23" s="27"/>
-      <c r="AY23" s="27"/>
-      <c r="AZ23" s="27"/>
-      <c r="BA23" s="27"/>
-      <c r="BB23" s="27"/>
-      <c r="BC23" s="27"/>
-      <c r="BD23" s="27"/>
-      <c r="BE23" s="27"/>
-      <c r="BF23" s="27"/>
-      <c r="BG23" s="27"/>
-      <c r="BH23" s="27"/>
-      <c r="BI23" s="27"/>
-      <c r="BJ23" s="27"/>
-      <c r="BK23" s="27"/>
-      <c r="BL23" s="27"/>
-      <c r="BM23" s="27"/>
-      <c r="BN23" s="27"/>
-      <c r="BO23" s="27"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="23"/>
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="23"/>
+      <c r="AL23" s="23"/>
+      <c r="AM23" s="23"/>
+      <c r="AN23" s="23"/>
+      <c r="AO23" s="23"/>
+      <c r="AP23" s="23"/>
+      <c r="AQ23" s="23"/>
+      <c r="AR23" s="23"/>
+      <c r="AS23" s="23"/>
+      <c r="AT23" s="23"/>
+      <c r="AU23" s="23"/>
+      <c r="AV23" s="23"/>
+      <c r="AW23" s="23"/>
+      <c r="AX23" s="23"/>
+      <c r="AY23" s="23"/>
+      <c r="AZ23" s="23"/>
+      <c r="BA23" s="23"/>
+      <c r="BB23" s="23"/>
+      <c r="BC23" s="23"/>
+      <c r="BD23" s="23"/>
+      <c r="BE23" s="23"/>
+      <c r="BF23" s="23"/>
+      <c r="BG23" s="23"/>
+      <c r="BH23" s="23"/>
+      <c r="BI23" s="23"/>
+      <c r="BJ23" s="23"/>
+      <c r="BK23" s="23"/>
+      <c r="BL23" s="23"/>
+      <c r="BM23" s="23"/>
+      <c r="BN23" s="23"/>
+      <c r="BO23" s="23"/>
     </row>
     <row r="24" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="60">
+      <c r="B24" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="52">
         <v>1</v>
       </c>
-      <c r="F24" s="57">
+      <c r="F24" s="49">
         <v>44105</v>
       </c>
-      <c r="G24" s="57">
+      <c r="G24" s="49">
         <v>44120</v>
       </c>
-      <c r="H24" s="50">
+      <c r="H24" s="42">
         <v>12</v>
       </c>
-      <c r="I24" s="53">
+      <c r="I24" s="45">
         <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
         <v>3</v>
       </c>
-      <c r="J24" s="47">
+      <c r="J24" s="40">
         <f>Hitos[[#This Row],[Fin]]-Hitos[[#This Row],[Inicio]]</f>
         <v>15</v>
       </c>
-      <c r="K24" s="18"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="27"/>
-      <c r="AJ24" s="27"/>
-      <c r="AK24" s="27"/>
-      <c r="AL24" s="27"/>
-      <c r="AM24" s="27"/>
-      <c r="AN24" s="27"/>
-      <c r="AO24" s="27"/>
-      <c r="AP24" s="27"/>
-      <c r="AQ24" s="27"/>
-      <c r="AR24" s="27"/>
-      <c r="AS24" s="27"/>
-      <c r="AT24" s="27"/>
-      <c r="AU24" s="27"/>
-      <c r="AV24" s="27"/>
-      <c r="AW24" s="27"/>
-      <c r="AX24" s="27"/>
-      <c r="AY24" s="27"/>
-      <c r="AZ24" s="27"/>
-      <c r="BA24" s="27"/>
-      <c r="BB24" s="27"/>
-      <c r="BC24" s="27"/>
-      <c r="BD24" s="27"/>
-      <c r="BE24" s="27"/>
-      <c r="BF24" s="27"/>
-      <c r="BG24" s="27"/>
-      <c r="BH24" s="27"/>
-      <c r="BI24" s="27"/>
-      <c r="BJ24" s="27"/>
-      <c r="BK24" s="27"/>
-      <c r="BL24" s="27"/>
-      <c r="BM24" s="27"/>
-      <c r="BN24" s="27"/>
-      <c r="BO24" s="27"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="23"/>
+      <c r="AI24" s="23"/>
+      <c r="AJ24" s="23"/>
+      <c r="AK24" s="23"/>
+      <c r="AL24" s="23"/>
+      <c r="AM24" s="23"/>
+      <c r="AN24" s="23"/>
+      <c r="AO24" s="23"/>
+      <c r="AP24" s="23"/>
+      <c r="AQ24" s="23"/>
+      <c r="AR24" s="23"/>
+      <c r="AS24" s="23"/>
+      <c r="AT24" s="23"/>
+      <c r="AU24" s="23"/>
+      <c r="AV24" s="23"/>
+      <c r="AW24" s="23"/>
+      <c r="AX24" s="23"/>
+      <c r="AY24" s="23"/>
+      <c r="AZ24" s="23"/>
+      <c r="BA24" s="23"/>
+      <c r="BB24" s="23"/>
+      <c r="BC24" s="23"/>
+      <c r="BD24" s="23"/>
+      <c r="BE24" s="23"/>
+      <c r="BF24" s="23"/>
+      <c r="BG24" s="23"/>
+      <c r="BH24" s="23"/>
+      <c r="BI24" s="23"/>
+      <c r="BJ24" s="23"/>
+      <c r="BK24" s="23"/>
+      <c r="BL24" s="23"/>
+      <c r="BM24" s="23"/>
+      <c r="BN24" s="23"/>
+      <c r="BO24" s="23"/>
     </row>
     <row r="25" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
-      <c r="B25" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="60">
+      <c r="B25" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="52">
         <v>1</v>
       </c>
-      <c r="F25" s="57">
+      <c r="F25" s="49">
         <v>44105</v>
       </c>
-      <c r="G25" s="57">
-        <f t="shared" ref="G21:G25" ca="1" si="12">TODAY()</f>
-        <v>44121</v>
-      </c>
-      <c r="H25" s="50">
+      <c r="G25" s="49">
+        <v>44120</v>
+      </c>
+      <c r="H25" s="42">
         <v>12</v>
       </c>
-      <c r="I25" s="53">
-        <f ca="1">IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
-        <v>4</v>
-      </c>
-      <c r="J25" s="47">
-        <f ca="1">Hitos[[#This Row],[Fin]]-Hitos[[#This Row],[Inicio]]</f>
-        <v>16</v>
-      </c>
-      <c r="K25" s="18"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="27"/>
-      <c r="AJ25" s="27"/>
-      <c r="AK25" s="27"/>
-      <c r="AL25" s="27"/>
-      <c r="AM25" s="27"/>
-      <c r="AN25" s="27"/>
-      <c r="AO25" s="27"/>
-      <c r="AP25" s="27"/>
-      <c r="AQ25" s="27"/>
-      <c r="AR25" s="27"/>
-      <c r="AS25" s="27"/>
-      <c r="AT25" s="27"/>
-      <c r="AU25" s="27"/>
-      <c r="AV25" s="27"/>
-      <c r="AW25" s="27"/>
-      <c r="AX25" s="27"/>
-      <c r="AY25" s="27"/>
-      <c r="AZ25" s="27"/>
-      <c r="BA25" s="27"/>
-      <c r="BB25" s="27"/>
-      <c r="BC25" s="27"/>
-      <c r="BD25" s="27"/>
-      <c r="BE25" s="27"/>
-      <c r="BF25" s="27"/>
-      <c r="BG25" s="27"/>
-      <c r="BH25" s="27"/>
-      <c r="BI25" s="27"/>
-      <c r="BJ25" s="27"/>
-      <c r="BK25" s="27"/>
-      <c r="BL25" s="27"/>
-      <c r="BM25" s="27"/>
-      <c r="BN25" s="27"/>
-      <c r="BO25" s="27"/>
+      <c r="I25" s="45">
+        <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
+        <v>3</v>
+      </c>
+      <c r="J25" s="40">
+        <f>Hitos[[#This Row],[Fin]]-Hitos[[#This Row],[Inicio]]</f>
+        <v>15</v>
+      </c>
+      <c r="K25" s="17"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="23"/>
+      <c r="AI25" s="23"/>
+      <c r="AJ25" s="23"/>
+      <c r="AK25" s="23"/>
+      <c r="AL25" s="23"/>
+      <c r="AM25" s="23"/>
+      <c r="AN25" s="23"/>
+      <c r="AO25" s="23"/>
+      <c r="AP25" s="23"/>
+      <c r="AQ25" s="23"/>
+      <c r="AR25" s="23"/>
+      <c r="AS25" s="23"/>
+      <c r="AT25" s="23"/>
+      <c r="AU25" s="23"/>
+      <c r="AV25" s="23"/>
+      <c r="AW25" s="23"/>
+      <c r="AX25" s="23"/>
+      <c r="AY25" s="23"/>
+      <c r="AZ25" s="23"/>
+      <c r="BA25" s="23"/>
+      <c r="BB25" s="23"/>
+      <c r="BC25" s="23"/>
+      <c r="BD25" s="23"/>
+      <c r="BE25" s="23"/>
+      <c r="BF25" s="23"/>
+      <c r="BG25" s="23"/>
+      <c r="BH25" s="23"/>
+      <c r="BI25" s="23"/>
+      <c r="BJ25" s="23"/>
+      <c r="BK25" s="23"/>
+      <c r="BL25" s="23"/>
+      <c r="BM25" s="23"/>
+      <c r="BN25" s="23"/>
+      <c r="BO25" s="23"/>
     </row>
     <row r="26" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
-      <c r="B26" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="59">
+      <c r="B26" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="51">
         <v>0</v>
       </c>
-      <c r="F26" s="58">
-        <v>44116</v>
-      </c>
-      <c r="G26" s="58">
+      <c r="F26" s="50">
+        <v>44123</v>
+      </c>
+      <c r="G26" s="50">
         <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
-        <v>44130</v>
-      </c>
-      <c r="H26" s="51">
-        <v>14</v>
-      </c>
-      <c r="I26" s="53"/>
-      <c r="J26" s="47">
-        <v>14</v>
-      </c>
-      <c r="K26" s="18"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="27"/>
-      <c r="AH26" s="27"/>
-      <c r="AI26" s="27"/>
-      <c r="AJ26" s="27"/>
-      <c r="AK26" s="27"/>
-      <c r="AL26" s="62"/>
-      <c r="AM26" s="62"/>
-      <c r="AN26" s="62"/>
-      <c r="AO26" s="62"/>
-      <c r="AP26" s="62"/>
-      <c r="AQ26" s="27"/>
-      <c r="AR26" s="27"/>
-      <c r="AS26" s="27"/>
-      <c r="AT26" s="27"/>
-      <c r="AU26" s="27"/>
-      <c r="AV26" s="27"/>
-      <c r="AW26" s="27"/>
-      <c r="AX26" s="27"/>
-      <c r="AY26" s="27"/>
-      <c r="AZ26" s="27"/>
-      <c r="BA26" s="27"/>
-      <c r="BB26" s="27"/>
-      <c r="BC26" s="27"/>
-      <c r="BD26" s="27"/>
-      <c r="BE26" s="27"/>
-      <c r="BF26" s="27"/>
-      <c r="BG26" s="27"/>
-      <c r="BH26" s="27"/>
-      <c r="BI26" s="27"/>
-      <c r="BJ26" s="27"/>
-      <c r="BK26" s="27"/>
-      <c r="BL26" s="27"/>
-      <c r="BM26" s="27"/>
-      <c r="BN26" s="27"/>
-      <c r="BO26" s="27"/>
+        <v>44127</v>
+      </c>
+      <c r="H26" s="43">
+        <v>4</v>
+      </c>
+      <c r="I26" s="45"/>
+      <c r="J26" s="65">
+        <v>4</v>
+      </c>
+      <c r="K26" s="17"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="23"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="23"/>
+      <c r="AL26" s="54"/>
+      <c r="AM26" s="54"/>
+      <c r="AN26" s="54"/>
+      <c r="AO26" s="54"/>
+      <c r="AP26" s="54"/>
+      <c r="AQ26" s="23"/>
+      <c r="AR26" s="23"/>
+      <c r="AS26" s="23"/>
+      <c r="AT26" s="23"/>
+      <c r="AU26" s="23"/>
+      <c r="AV26" s="23"/>
+      <c r="AW26" s="23"/>
+      <c r="AX26" s="23"/>
+      <c r="AY26" s="23"/>
+      <c r="AZ26" s="23"/>
+      <c r="BA26" s="23"/>
+      <c r="BB26" s="23"/>
+      <c r="BC26" s="23"/>
+      <c r="BD26" s="23"/>
+      <c r="BE26" s="23"/>
+      <c r="BF26" s="23"/>
+      <c r="BG26" s="23"/>
+      <c r="BH26" s="23"/>
+      <c r="BI26" s="23"/>
+      <c r="BJ26" s="23"/>
+      <c r="BK26" s="23"/>
+      <c r="BL26" s="23"/>
+      <c r="BM26" s="23"/>
+      <c r="BN26" s="23"/>
+      <c r="BO26" s="23"/>
     </row>
     <row r="27" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="24"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23" t="str">
-        <f>IF(Hitos[[#This Row],[Tempo Real]]="","",Hitos[[#This Row],[Inicio]]+Hitos[[#This Row],[Tempo Real]])</f>
-        <v/>
-      </c>
-      <c r="H27" s="50"/>
-      <c r="I27" s="53" t="str">
+      <c r="B27" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="68">
+        <v>0</v>
+      </c>
+      <c r="F27" s="63">
+        <v>44123</v>
+      </c>
+      <c r="G27" s="63">
+        <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
+        <v>44127</v>
+      </c>
+      <c r="H27" s="64">
+        <v>4</v>
+      </c>
+      <c r="I27" s="45" t="str">
         <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
         <v/>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="27"/>
-      <c r="AF27" s="27"/>
-      <c r="AG27" s="27"/>
-      <c r="AH27" s="27"/>
-      <c r="AI27" s="27"/>
-      <c r="AJ27" s="27"/>
-      <c r="AK27" s="27"/>
-      <c r="AL27" s="27">
+      <c r="J27" s="40">
+        <v>4</v>
+      </c>
+      <c r="K27" s="17"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="23"/>
+      <c r="AH27" s="23"/>
+      <c r="AI27" s="23"/>
+      <c r="AJ27" s="23"/>
+      <c r="AK27" s="23"/>
+      <c r="AL27" s="23">
         <v>0</v>
       </c>
-      <c r="AM27" s="27"/>
-      <c r="AN27" s="27"/>
-      <c r="AO27" s="27"/>
-      <c r="AP27" s="27"/>
-      <c r="AQ27" s="27"/>
-      <c r="AR27" s="27"/>
-      <c r="AS27" s="27"/>
-      <c r="AT27" s="27"/>
-      <c r="AU27" s="27"/>
-      <c r="AV27" s="27"/>
-      <c r="AW27" s="27"/>
-      <c r="AX27" s="27"/>
-      <c r="AY27" s="27"/>
-      <c r="AZ27" s="27"/>
-      <c r="BA27" s="27"/>
-      <c r="BB27" s="27"/>
-      <c r="BC27" s="27"/>
-      <c r="BD27" s="27"/>
-      <c r="BE27" s="27"/>
-      <c r="BF27" s="27"/>
-      <c r="BG27" s="27"/>
-      <c r="BH27" s="27"/>
-      <c r="BI27" s="27"/>
-      <c r="BJ27" s="27"/>
-      <c r="BK27" s="27"/>
-      <c r="BL27" s="27"/>
-      <c r="BM27" s="27"/>
-      <c r="BN27" s="27"/>
-      <c r="BO27" s="27"/>
+      <c r="AM27" s="23"/>
+      <c r="AN27" s="23"/>
+      <c r="AO27" s="23"/>
+      <c r="AP27" s="23"/>
+      <c r="AQ27" s="23"/>
+      <c r="AR27" s="23"/>
+      <c r="AS27" s="23"/>
+      <c r="AT27" s="23"/>
+      <c r="AU27" s="23"/>
+      <c r="AV27" s="23"/>
+      <c r="AW27" s="23"/>
+      <c r="AX27" s="23"/>
+      <c r="AY27" s="23"/>
+      <c r="AZ27" s="23"/>
+      <c r="BA27" s="23"/>
+      <c r="BB27" s="23"/>
+      <c r="BC27" s="23"/>
+      <c r="BD27" s="23"/>
+      <c r="BE27" s="23"/>
+      <c r="BF27" s="23"/>
+      <c r="BG27" s="23"/>
+      <c r="BH27" s="23"/>
+      <c r="BI27" s="23"/>
+      <c r="BJ27" s="23"/>
+      <c r="BK27" s="23"/>
+      <c r="BL27" s="23"/>
+      <c r="BM27" s="23"/>
+      <c r="BN27" s="23"/>
+      <c r="BO27" s="23"/>
     </row>
     <row r="28" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="20"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28" s="44" t="str">
-        <f>IF(Hitos[[#This Row],[Tempo Real]]="","",Hitos[[#This Row],[Inicio]]+Hitos[[#This Row],[Tempo Real]])</f>
-        <v/>
-      </c>
-      <c r="H28" s="50"/>
-      <c r="I28" s="53" t="str">
+      <c r="B28" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="68">
+        <v>0</v>
+      </c>
+      <c r="F28" s="63">
+        <v>44123</v>
+      </c>
+      <c r="G28" s="63">
+        <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
+        <v>44127</v>
+      </c>
+      <c r="H28" s="64">
+        <v>4</v>
+      </c>
+      <c r="I28" s="45" t="str">
         <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
         <v/>
       </c>
-      <c r="J28" s="24"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="27"/>
-      <c r="AF28" s="27"/>
-      <c r="AG28" s="27"/>
-      <c r="AH28" s="27"/>
-      <c r="AI28" s="27"/>
-      <c r="AJ28" s="27"/>
-      <c r="AK28" s="27"/>
-      <c r="AL28" s="27"/>
-      <c r="AM28" s="27"/>
-      <c r="AN28" s="27"/>
-      <c r="AO28" s="27"/>
-      <c r="AP28" s="27"/>
-      <c r="AQ28" s="27"/>
-      <c r="AR28" s="27"/>
-      <c r="AS28" s="27"/>
-      <c r="AT28" s="27"/>
-      <c r="AU28" s="27"/>
-      <c r="AV28" s="27"/>
-      <c r="AW28" s="27"/>
-      <c r="AX28" s="27"/>
-      <c r="AY28" s="27"/>
-      <c r="AZ28" s="27"/>
-      <c r="BA28" s="27"/>
-      <c r="BB28" s="27"/>
-      <c r="BC28" s="27"/>
-      <c r="BD28" s="27"/>
-      <c r="BE28" s="27"/>
-      <c r="BF28" s="27"/>
-      <c r="BG28" s="27"/>
-      <c r="BH28" s="27"/>
-      <c r="BI28" s="27"/>
-      <c r="BJ28" s="27"/>
-      <c r="BK28" s="27"/>
-      <c r="BL28" s="27"/>
-      <c r="BM28" s="27"/>
-      <c r="BN28" s="27"/>
-      <c r="BO28" s="27"/>
+      <c r="J28" s="40">
+        <v>4</v>
+      </c>
+      <c r="K28" s="17"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="23"/>
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="23"/>
+      <c r="AL28" s="23"/>
+      <c r="AM28" s="23"/>
+      <c r="AN28" s="23"/>
+      <c r="AO28" s="23"/>
+      <c r="AP28" s="23"/>
+      <c r="AQ28" s="23"/>
+      <c r="AR28" s="23"/>
+      <c r="AS28" s="23"/>
+      <c r="AT28" s="23"/>
+      <c r="AU28" s="23"/>
+      <c r="AV28" s="23"/>
+      <c r="AW28" s="23"/>
+      <c r="AX28" s="23"/>
+      <c r="AY28" s="23"/>
+      <c r="AZ28" s="23"/>
+      <c r="BA28" s="23"/>
+      <c r="BB28" s="23"/>
+      <c r="BC28" s="23"/>
+      <c r="BD28" s="23"/>
+      <c r="BE28" s="23"/>
+      <c r="BF28" s="23"/>
+      <c r="BG28" s="23"/>
+      <c r="BH28" s="23"/>
+      <c r="BI28" s="23"/>
+      <c r="BJ28" s="23"/>
+      <c r="BK28" s="23"/>
+      <c r="BL28" s="23"/>
+      <c r="BM28" s="23"/>
+      <c r="BN28" s="23"/>
+      <c r="BO28" s="23"/>
     </row>
     <row r="29" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="44" t="str">
-        <f>IF(Hitos[[#This Row],[Tempo Real]]="","",Hitos[[#This Row],[Inicio]]+Hitos[[#This Row],[Tempo Real]])</f>
-        <v/>
-      </c>
-      <c r="H29" s="50"/>
-      <c r="I29" s="53" t="str">
+      <c r="B29" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="68">
+        <v>0</v>
+      </c>
+      <c r="F29" s="63">
+        <v>44123</v>
+      </c>
+      <c r="G29" s="63">
+        <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
+        <v>44127</v>
+      </c>
+      <c r="H29" s="64">
+        <v>4</v>
+      </c>
+      <c r="I29" s="45" t="str">
         <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
         <v/>
       </c>
-      <c r="J29" s="47"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="27"/>
-      <c r="AF29" s="27"/>
-      <c r="AG29" s="27"/>
-      <c r="AH29" s="27"/>
-      <c r="AI29" s="27"/>
-      <c r="AJ29" s="27"/>
-      <c r="AK29" s="27"/>
-      <c r="AL29" s="27"/>
-      <c r="AM29" s="27"/>
-      <c r="AN29" s="27"/>
-      <c r="AO29" s="27"/>
-      <c r="AP29" s="27"/>
-      <c r="AQ29" s="27"/>
-      <c r="AR29" s="27"/>
-      <c r="AS29" s="27"/>
-      <c r="AT29" s="27"/>
-      <c r="AU29" s="27"/>
-      <c r="AV29" s="27"/>
-      <c r="AW29" s="27"/>
-      <c r="AX29" s="27"/>
-      <c r="AY29" s="27"/>
-      <c r="AZ29" s="27"/>
-      <c r="BA29" s="27"/>
-      <c r="BB29" s="27"/>
-      <c r="BC29" s="27"/>
-      <c r="BD29" s="27"/>
-      <c r="BE29" s="27"/>
-      <c r="BF29" s="27"/>
-      <c r="BG29" s="27"/>
-      <c r="BH29" s="27"/>
-      <c r="BI29" s="27"/>
-      <c r="BJ29" s="27"/>
-      <c r="BK29" s="27"/>
-      <c r="BL29" s="27"/>
-      <c r="BM29" s="27"/>
-      <c r="BN29" s="27"/>
-      <c r="BO29" s="27"/>
+      <c r="J29" s="40">
+        <v>4</v>
+      </c>
+      <c r="K29" s="17"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="23"/>
+      <c r="AG29" s="23"/>
+      <c r="AH29" s="23"/>
+      <c r="AI29" s="23"/>
+      <c r="AJ29" s="23"/>
+      <c r="AK29" s="23"/>
+      <c r="AL29" s="23"/>
+      <c r="AM29" s="23"/>
+      <c r="AN29" s="23"/>
+      <c r="AO29" s="23"/>
+      <c r="AP29" s="23"/>
+      <c r="AQ29" s="23"/>
+      <c r="AR29" s="23"/>
+      <c r="AS29" s="23"/>
+      <c r="AT29" s="23"/>
+      <c r="AU29" s="23"/>
+      <c r="AV29" s="23"/>
+      <c r="AW29" s="23"/>
+      <c r="AX29" s="23"/>
+      <c r="AY29" s="23"/>
+      <c r="AZ29" s="23"/>
+      <c r="BA29" s="23"/>
+      <c r="BB29" s="23"/>
+      <c r="BC29" s="23"/>
+      <c r="BD29" s="23"/>
+      <c r="BE29" s="23"/>
+      <c r="BF29" s="23"/>
+      <c r="BG29" s="23"/>
+      <c r="BH29" s="23"/>
+      <c r="BI29" s="23"/>
+      <c r="BJ29" s="23"/>
+      <c r="BK29" s="23"/>
+      <c r="BL29" s="23"/>
+      <c r="BM29" s="23"/>
+      <c r="BN29" s="23"/>
+      <c r="BO29" s="23"/>
     </row>
     <row r="30" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="44" t="str">
-        <f>IF(Hitos[[#This Row],[Tempo Real]]="","",Hitos[[#This Row],[Inicio]]+Hitos[[#This Row],[Tempo Real]])</f>
-        <v/>
-      </c>
-      <c r="H30" s="50"/>
-      <c r="I30" s="53" t="str">
+      <c r="B30" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="68">
+        <v>0</v>
+      </c>
+      <c r="F30" s="63">
+        <v>44123</v>
+      </c>
+      <c r="G30" s="63">
+        <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
+        <v>44127</v>
+      </c>
+      <c r="H30" s="64">
+        <v>4</v>
+      </c>
+      <c r="I30" s="45" t="str">
         <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
         <v/>
       </c>
-      <c r="J30" s="47"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="27"/>
-      <c r="AF30" s="27"/>
-      <c r="AG30" s="27"/>
-      <c r="AH30" s="27"/>
-      <c r="AI30" s="27"/>
-      <c r="AJ30" s="27"/>
-      <c r="AK30" s="27"/>
-      <c r="AL30" s="27"/>
-      <c r="AM30" s="27"/>
-      <c r="AN30" s="27"/>
-      <c r="AO30" s="27"/>
-      <c r="AP30" s="27"/>
-      <c r="AQ30" s="27"/>
-      <c r="AR30" s="27"/>
-      <c r="AS30" s="27"/>
-      <c r="AT30" s="27"/>
-      <c r="AU30" s="27"/>
-      <c r="AV30" s="27"/>
-      <c r="AW30" s="27"/>
-      <c r="AX30" s="27"/>
-      <c r="AY30" s="27"/>
-      <c r="AZ30" s="27"/>
-      <c r="BA30" s="27"/>
-      <c r="BB30" s="27"/>
-      <c r="BC30" s="27"/>
-      <c r="BD30" s="27"/>
-      <c r="BE30" s="27"/>
-      <c r="BF30" s="27"/>
-      <c r="BG30" s="27"/>
-      <c r="BH30" s="27"/>
-      <c r="BI30" s="27"/>
-      <c r="BJ30" s="27"/>
-      <c r="BK30" s="27"/>
-      <c r="BL30" s="27"/>
-      <c r="BM30" s="27"/>
-      <c r="BN30" s="27"/>
-      <c r="BO30" s="27"/>
+      <c r="J30" s="40">
+        <v>4</v>
+      </c>
+      <c r="K30" s="17"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="23"/>
+      <c r="AF30" s="23"/>
+      <c r="AG30" s="23"/>
+      <c r="AH30" s="23"/>
+      <c r="AI30" s="23"/>
+      <c r="AJ30" s="23"/>
+      <c r="AK30" s="23"/>
+      <c r="AL30" s="23"/>
+      <c r="AM30" s="23"/>
+      <c r="AN30" s="23"/>
+      <c r="AO30" s="23"/>
+      <c r="AP30" s="23"/>
+      <c r="AQ30" s="23"/>
+      <c r="AR30" s="23"/>
+      <c r="AS30" s="23"/>
+      <c r="AT30" s="23"/>
+      <c r="AU30" s="23"/>
+      <c r="AV30" s="23"/>
+      <c r="AW30" s="23"/>
+      <c r="AX30" s="23"/>
+      <c r="AY30" s="23"/>
+      <c r="AZ30" s="23"/>
+      <c r="BA30" s="23"/>
+      <c r="BB30" s="23"/>
+      <c r="BC30" s="23"/>
+      <c r="BD30" s="23"/>
+      <c r="BE30" s="23"/>
+      <c r="BF30" s="23"/>
+      <c r="BG30" s="23"/>
+      <c r="BH30" s="23"/>
+      <c r="BI30" s="23"/>
+      <c r="BJ30" s="23"/>
+      <c r="BK30" s="23"/>
+      <c r="BL30" s="23"/>
+      <c r="BM30" s="23"/>
+      <c r="BN30" s="23"/>
+      <c r="BO30" s="23"/>
     </row>
     <row r="31" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="44" t="str">
-        <f>IF(Hitos[[#This Row],[Tempo Real]]="","",Hitos[[#This Row],[Inicio]]+Hitos[[#This Row],[Tempo Real]])</f>
-        <v/>
-      </c>
-      <c r="H31" s="50"/>
-      <c r="I31" s="53" t="str">
+      <c r="B31" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="68">
+        <v>0</v>
+      </c>
+      <c r="F31" s="63">
+        <v>44123</v>
+      </c>
+      <c r="G31" s="63">
+        <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
+        <v>44127</v>
+      </c>
+      <c r="H31" s="64">
+        <v>4</v>
+      </c>
+      <c r="I31" s="45" t="str">
         <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
         <v/>
       </c>
-      <c r="J31" s="47"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="27"/>
-      <c r="AE31" s="27"/>
-      <c r="AF31" s="27"/>
-      <c r="AG31" s="27"/>
-      <c r="AH31" s="27"/>
-      <c r="AI31" s="27"/>
-      <c r="AJ31" s="27"/>
-      <c r="AK31" s="27"/>
-      <c r="AL31" s="27"/>
-      <c r="AM31" s="27"/>
-      <c r="AN31" s="27"/>
-      <c r="AO31" s="27"/>
-      <c r="AP31" s="27"/>
-      <c r="AQ31" s="27"/>
-      <c r="AR31" s="27"/>
-      <c r="AS31" s="27"/>
-      <c r="AT31" s="27"/>
-      <c r="AU31" s="27"/>
-      <c r="AV31" s="27"/>
-      <c r="AW31" s="27"/>
-      <c r="AX31" s="27"/>
-      <c r="AY31" s="27"/>
-      <c r="AZ31" s="27"/>
-      <c r="BA31" s="27"/>
-      <c r="BB31" s="27"/>
-      <c r="BC31" s="27"/>
-      <c r="BD31" s="27"/>
-      <c r="BE31" s="27"/>
-      <c r="BF31" s="27"/>
-      <c r="BG31" s="27"/>
-      <c r="BH31" s="27"/>
-      <c r="BI31" s="27"/>
-      <c r="BJ31" s="27"/>
-      <c r="BK31" s="27"/>
-      <c r="BL31" s="27"/>
-      <c r="BM31" s="27"/>
-      <c r="BN31" s="27"/>
-      <c r="BO31" s="27"/>
+      <c r="J31" s="40">
+        <v>4</v>
+      </c>
+      <c r="K31" s="17"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="23"/>
+      <c r="AF31" s="23"/>
+      <c r="AG31" s="23"/>
+      <c r="AH31" s="23"/>
+      <c r="AI31" s="23"/>
+      <c r="AJ31" s="23"/>
+      <c r="AK31" s="23"/>
+      <c r="AL31" s="23"/>
+      <c r="AM31" s="23"/>
+      <c r="AN31" s="23"/>
+      <c r="AO31" s="23"/>
+      <c r="AP31" s="23"/>
+      <c r="AQ31" s="23"/>
+      <c r="AR31" s="23"/>
+      <c r="AS31" s="23"/>
+      <c r="AT31" s="23"/>
+      <c r="AU31" s="23"/>
+      <c r="AV31" s="23"/>
+      <c r="AW31" s="23"/>
+      <c r="AX31" s="23"/>
+      <c r="AY31" s="23"/>
+      <c r="AZ31" s="23"/>
+      <c r="BA31" s="23"/>
+      <c r="BB31" s="23"/>
+      <c r="BC31" s="23"/>
+      <c r="BD31" s="23"/>
+      <c r="BE31" s="23"/>
+      <c r="BF31" s="23"/>
+      <c r="BG31" s="23"/>
+      <c r="BH31" s="23"/>
+      <c r="BI31" s="23"/>
+      <c r="BJ31" s="23"/>
+      <c r="BK31" s="23"/>
+      <c r="BL31" s="23"/>
+      <c r="BM31" s="23"/>
+      <c r="BN31" s="23"/>
+      <c r="BO31" s="23"/>
     </row>
     <row r="32" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="44" t="str">
-        <f>IF(Hitos[[#This Row],[Tempo Real]]="","",Hitos[[#This Row],[Inicio]]+Hitos[[#This Row],[Tempo Real]])</f>
-        <v/>
-      </c>
-      <c r="H32" s="50"/>
-      <c r="I32" s="53" t="str">
+      <c r="B32" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="68">
+        <v>0</v>
+      </c>
+      <c r="F32" s="63">
+        <v>44123</v>
+      </c>
+      <c r="G32" s="63">
+        <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
+        <v>44127</v>
+      </c>
+      <c r="H32" s="64">
+        <v>4</v>
+      </c>
+      <c r="I32" s="45" t="str">
         <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
         <v/>
       </c>
-      <c r="J32" s="47"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="27"/>
-      <c r="AC32" s="27"/>
-      <c r="AD32" s="27"/>
-      <c r="AE32" s="27"/>
-      <c r="AF32" s="27"/>
-      <c r="AG32" s="27"/>
-      <c r="AH32" s="27"/>
-      <c r="AI32" s="27"/>
-      <c r="AJ32" s="27"/>
-      <c r="AK32" s="27"/>
-      <c r="AL32" s="27"/>
-      <c r="AM32" s="27"/>
-      <c r="AN32" s="27"/>
-      <c r="AO32" s="27"/>
-      <c r="AP32" s="27"/>
-      <c r="AQ32" s="27"/>
-      <c r="AR32" s="27"/>
-      <c r="AS32" s="27"/>
-      <c r="AT32" s="27"/>
-      <c r="AU32" s="27"/>
-      <c r="AV32" s="27"/>
-      <c r="AW32" s="27"/>
-      <c r="AX32" s="27"/>
-      <c r="AY32" s="27"/>
-      <c r="AZ32" s="27"/>
-      <c r="BA32" s="27"/>
-      <c r="BB32" s="27"/>
-      <c r="BC32" s="27"/>
-      <c r="BD32" s="27"/>
-      <c r="BE32" s="27"/>
-      <c r="BF32" s="27"/>
-      <c r="BG32" s="27"/>
-      <c r="BH32" s="27"/>
-      <c r="BI32" s="27"/>
-      <c r="BJ32" s="27"/>
-      <c r="BK32" s="27"/>
-      <c r="BL32" s="27"/>
-      <c r="BM32" s="27"/>
-      <c r="BN32" s="27"/>
-      <c r="BO32" s="27"/>
+      <c r="J32" s="40">
+        <v>4</v>
+      </c>
+      <c r="K32" s="17"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="23"/>
+      <c r="AG32" s="23"/>
+      <c r="AH32" s="23"/>
+      <c r="AI32" s="23"/>
+      <c r="AJ32" s="23"/>
+      <c r="AK32" s="23"/>
+      <c r="AL32" s="23"/>
+      <c r="AM32" s="23"/>
+      <c r="AN32" s="23"/>
+      <c r="AO32" s="23"/>
+      <c r="AP32" s="23"/>
+      <c r="AQ32" s="23"/>
+      <c r="AR32" s="23"/>
+      <c r="AS32" s="23"/>
+      <c r="AT32" s="23"/>
+      <c r="AU32" s="23"/>
+      <c r="AV32" s="23"/>
+      <c r="AW32" s="23"/>
+      <c r="AX32" s="23"/>
+      <c r="AY32" s="23"/>
+      <c r="AZ32" s="23"/>
+      <c r="BA32" s="23"/>
+      <c r="BB32" s="23"/>
+      <c r="BC32" s="23"/>
+      <c r="BD32" s="23"/>
+      <c r="BE32" s="23"/>
+      <c r="BF32" s="23"/>
+      <c r="BG32" s="23"/>
+      <c r="BH32" s="23"/>
+      <c r="BI32" s="23"/>
+      <c r="BJ32" s="23"/>
+      <c r="BK32" s="23"/>
+      <c r="BL32" s="23"/>
+      <c r="BM32" s="23"/>
+      <c r="BN32" s="23"/>
+      <c r="BO32" s="23"/>
     </row>
     <row r="33" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="44" t="str">
-        <f>IF(Hitos[[#This Row],[Tempo Real]]="","",Hitos[[#This Row],[Inicio]]+Hitos[[#This Row],[Tempo Real]])</f>
-        <v/>
-      </c>
-      <c r="H33" s="50"/>
-      <c r="I33" s="53" t="str">
+      <c r="B33" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="72"/>
+      <c r="D33" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="66">
+        <v>0</v>
+      </c>
+      <c r="F33" s="50">
+        <v>44123</v>
+      </c>
+      <c r="G33" s="50">
+        <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
+        <v>44127</v>
+      </c>
+      <c r="H33" s="43">
+        <v>4</v>
+      </c>
+      <c r="I33" s="39" t="str">
         <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
         <v/>
       </c>
-      <c r="J33" s="47"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="27"/>
-      <c r="AE33" s="27"/>
-      <c r="AF33" s="27"/>
-      <c r="AG33" s="27"/>
-      <c r="AH33" s="27"/>
-      <c r="AI33" s="27"/>
-      <c r="AJ33" s="27"/>
-      <c r="AK33" s="27"/>
-      <c r="AL33" s="27"/>
-      <c r="AM33" s="27"/>
-      <c r="AN33" s="27"/>
-      <c r="AO33" s="27"/>
-      <c r="AP33" s="27"/>
-      <c r="AQ33" s="27"/>
-      <c r="AR33" s="27"/>
-      <c r="AS33" s="27"/>
-      <c r="AT33" s="27"/>
-      <c r="AU33" s="27"/>
-      <c r="AV33" s="27"/>
-      <c r="AW33" s="27"/>
-      <c r="AX33" s="27"/>
-      <c r="AY33" s="27"/>
-      <c r="AZ33" s="27"/>
-      <c r="BA33" s="27"/>
-      <c r="BB33" s="27"/>
-      <c r="BC33" s="27"/>
-      <c r="BD33" s="27"/>
-      <c r="BE33" s="27"/>
-      <c r="BF33" s="27"/>
-      <c r="BG33" s="27"/>
-      <c r="BH33" s="27"/>
-      <c r="BI33" s="27"/>
-      <c r="BJ33" s="27"/>
-      <c r="BK33" s="27"/>
-      <c r="BL33" s="27"/>
-      <c r="BM33" s="27"/>
-      <c r="BN33" s="27"/>
-      <c r="BO33" s="27"/>
+      <c r="J33" s="65">
+        <v>4</v>
+      </c>
+      <c r="K33" s="17"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="23"/>
+      <c r="AG33" s="23"/>
+      <c r="AH33" s="23"/>
+      <c r="AI33" s="23"/>
+      <c r="AJ33" s="23"/>
+      <c r="AK33" s="23"/>
+      <c r="AL33" s="23"/>
+      <c r="AM33" s="23"/>
+      <c r="AN33" s="23"/>
+      <c r="AO33" s="23"/>
+      <c r="AP33" s="23"/>
+      <c r="AQ33" s="23"/>
+      <c r="AR33" s="23"/>
+      <c r="AS33" s="23"/>
+      <c r="AT33" s="23"/>
+      <c r="AU33" s="23"/>
+      <c r="AV33" s="23"/>
+      <c r="AW33" s="23"/>
+      <c r="AX33" s="23"/>
+      <c r="AY33" s="23"/>
+      <c r="AZ33" s="23"/>
+      <c r="BA33" s="23"/>
+      <c r="BB33" s="23"/>
+      <c r="BC33" s="23"/>
+      <c r="BD33" s="23"/>
+      <c r="BE33" s="23"/>
+      <c r="BF33" s="23"/>
+      <c r="BG33" s="23"/>
+      <c r="BH33" s="23"/>
+      <c r="BI33" s="23"/>
+      <c r="BJ33" s="23"/>
+      <c r="BK33" s="23"/>
+      <c r="BL33" s="23"/>
+      <c r="BM33" s="23"/>
+      <c r="BN33" s="23"/>
+      <c r="BO33" s="23"/>
     </row>
     <row r="34" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="68">
+        <v>0</v>
+      </c>
+      <c r="F34" s="63">
+        <v>44123</v>
+      </c>
+      <c r="G34" s="63">
+        <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
+        <v>44127</v>
+      </c>
+      <c r="H34" s="64">
+        <v>4</v>
+      </c>
+      <c r="I34" s="45" t="str">
+        <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
+        <v/>
+      </c>
+      <c r="J34" s="40">
+        <v>4</v>
+      </c>
+      <c r="K34" s="17"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="23"/>
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="23"/>
+      <c r="AL34" s="23"/>
+      <c r="AM34" s="23"/>
+      <c r="AN34" s="23"/>
+      <c r="AO34" s="23"/>
+      <c r="AP34" s="23"/>
+      <c r="AQ34" s="23"/>
+      <c r="AR34" s="23"/>
+      <c r="AS34" s="23"/>
+      <c r="AT34" s="23"/>
+      <c r="AU34" s="23"/>
+      <c r="AV34" s="23"/>
+      <c r="AW34" s="23"/>
+      <c r="AX34" s="23"/>
+      <c r="AY34" s="23"/>
+      <c r="AZ34" s="23"/>
+      <c r="BA34" s="23"/>
+      <c r="BB34" s="23"/>
+      <c r="BC34" s="23"/>
+      <c r="BD34" s="23"/>
+      <c r="BE34" s="23"/>
+      <c r="BF34" s="23"/>
+      <c r="BG34" s="23"/>
+      <c r="BH34" s="23"/>
+      <c r="BI34" s="23"/>
+      <c r="BJ34" s="23"/>
+      <c r="BK34" s="23"/>
+      <c r="BL34" s="23"/>
+      <c r="BM34" s="23"/>
+      <c r="BN34" s="23"/>
+      <c r="BO34" s="23"/>
+    </row>
+    <row r="35" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="68">
+        <v>0</v>
+      </c>
+      <c r="F35" s="63">
+        <v>44123</v>
+      </c>
+      <c r="G35" s="63">
+        <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
+        <v>44127</v>
+      </c>
+      <c r="H35" s="64">
+        <v>4</v>
+      </c>
+      <c r="I35" s="45" t="str">
+        <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
+        <v/>
+      </c>
+      <c r="J35" s="40">
+        <v>4</v>
+      </c>
+      <c r="K35" s="17"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="23"/>
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="23"/>
+      <c r="AH35" s="23"/>
+      <c r="AI35" s="23"/>
+      <c r="AJ35" s="23"/>
+      <c r="AK35" s="23"/>
+      <c r="AL35" s="23"/>
+      <c r="AM35" s="23"/>
+      <c r="AN35" s="23"/>
+      <c r="AO35" s="23"/>
+      <c r="AP35" s="23"/>
+      <c r="AQ35" s="23"/>
+      <c r="AR35" s="23"/>
+      <c r="AS35" s="23"/>
+      <c r="AT35" s="23"/>
+      <c r="AU35" s="23"/>
+      <c r="AV35" s="23"/>
+      <c r="AW35" s="23"/>
+      <c r="AX35" s="23"/>
+      <c r="AY35" s="23"/>
+      <c r="AZ35" s="23"/>
+      <c r="BA35" s="23"/>
+      <c r="BB35" s="23"/>
+      <c r="BC35" s="23"/>
+      <c r="BD35" s="23"/>
+      <c r="BE35" s="23"/>
+      <c r="BF35" s="23"/>
+      <c r="BG35" s="23"/>
+      <c r="BH35" s="23"/>
+      <c r="BI35" s="23"/>
+      <c r="BJ35" s="23"/>
+      <c r="BK35" s="23"/>
+      <c r="BL35" s="23"/>
+      <c r="BM35" s="23"/>
+      <c r="BN35" s="23"/>
+      <c r="BO35" s="23"/>
+    </row>
+    <row r="36" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="68">
+        <v>0</v>
+      </c>
+      <c r="F36" s="63">
+        <v>44123</v>
+      </c>
+      <c r="G36" s="63">
+        <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
+        <v>44127</v>
+      </c>
+      <c r="H36" s="64">
+        <v>4</v>
+      </c>
+      <c r="I36" s="45" t="str">
+        <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
+        <v/>
+      </c>
+      <c r="J36" s="40">
+        <v>4</v>
+      </c>
+      <c r="K36" s="17"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="23"/>
+      <c r="AD36" s="23"/>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="23"/>
+      <c r="AG36" s="23"/>
+      <c r="AH36" s="23"/>
+      <c r="AI36" s="23"/>
+      <c r="AJ36" s="23"/>
+      <c r="AK36" s="23"/>
+      <c r="AL36" s="23"/>
+      <c r="AM36" s="23"/>
+      <c r="AN36" s="23"/>
+      <c r="AO36" s="23"/>
+      <c r="AP36" s="23"/>
+      <c r="AQ36" s="23"/>
+      <c r="AR36" s="23"/>
+      <c r="AS36" s="23"/>
+      <c r="AT36" s="23"/>
+      <c r="AU36" s="23"/>
+      <c r="AV36" s="23"/>
+      <c r="AW36" s="23"/>
+      <c r="AX36" s="23"/>
+      <c r="AY36" s="23"/>
+      <c r="AZ36" s="23"/>
+      <c r="BA36" s="23"/>
+      <c r="BB36" s="23"/>
+      <c r="BC36" s="23"/>
+      <c r="BD36" s="23"/>
+      <c r="BE36" s="23"/>
+      <c r="BF36" s="23"/>
+      <c r="BG36" s="23"/>
+      <c r="BH36" s="23"/>
+      <c r="BI36" s="23"/>
+      <c r="BJ36" s="23"/>
+      <c r="BK36" s="23"/>
+      <c r="BL36" s="23"/>
+      <c r="BM36" s="23"/>
+      <c r="BN36" s="23"/>
+      <c r="BO36" s="23"/>
+    </row>
+    <row r="37" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="68">
+        <v>0</v>
+      </c>
+      <c r="F37" s="63">
+        <v>44123</v>
+      </c>
+      <c r="G37" s="63">
+        <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
+        <v>44127</v>
+      </c>
+      <c r="H37" s="64">
+        <v>4</v>
+      </c>
+      <c r="I37" s="45" t="str">
+        <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
+        <v/>
+      </c>
+      <c r="J37" s="40">
+        <v>4</v>
+      </c>
+      <c r="K37" s="17"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="23"/>
+      <c r="AD37" s="23"/>
+      <c r="AE37" s="23"/>
+      <c r="AF37" s="23"/>
+      <c r="AG37" s="23"/>
+      <c r="AH37" s="23"/>
+      <c r="AI37" s="23"/>
+      <c r="AJ37" s="23"/>
+      <c r="AK37" s="23"/>
+      <c r="AL37" s="23"/>
+      <c r="AM37" s="23"/>
+      <c r="AN37" s="23"/>
+      <c r="AO37" s="23"/>
+      <c r="AP37" s="23"/>
+      <c r="AQ37" s="23"/>
+      <c r="AR37" s="23"/>
+      <c r="AS37" s="23"/>
+      <c r="AT37" s="23"/>
+      <c r="AU37" s="23"/>
+      <c r="AV37" s="23"/>
+      <c r="AW37" s="23"/>
+      <c r="AX37" s="23"/>
+      <c r="AY37" s="23"/>
+      <c r="AZ37" s="23"/>
+      <c r="BA37" s="23"/>
+      <c r="BB37" s="23"/>
+      <c r="BC37" s="23"/>
+      <c r="BD37" s="23"/>
+      <c r="BE37" s="23"/>
+      <c r="BF37" s="23"/>
+      <c r="BG37" s="23"/>
+      <c r="BH37" s="23"/>
+      <c r="BI37" s="23"/>
+      <c r="BJ37" s="23"/>
+      <c r="BK37" s="23"/>
+      <c r="BL37" s="23"/>
+      <c r="BM37" s="23"/>
+      <c r="BN37" s="23"/>
+      <c r="BO37" s="23"/>
+    </row>
+    <row r="38" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="68">
+        <v>0</v>
+      </c>
+      <c r="F38" s="63">
+        <v>44123</v>
+      </c>
+      <c r="G38" s="63">
+        <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
+        <v>44127</v>
+      </c>
+      <c r="H38" s="64">
+        <v>4</v>
+      </c>
+      <c r="I38" s="45" t="str">
+        <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
+        <v/>
+      </c>
+      <c r="J38" s="40">
+        <v>4</v>
+      </c>
+      <c r="K38" s="17"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="23"/>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="23"/>
+      <c r="AD38" s="23"/>
+      <c r="AE38" s="23"/>
+      <c r="AF38" s="23"/>
+      <c r="AG38" s="23"/>
+      <c r="AH38" s="23"/>
+      <c r="AI38" s="23"/>
+      <c r="AJ38" s="23"/>
+      <c r="AK38" s="23"/>
+      <c r="AL38" s="23"/>
+      <c r="AM38" s="23"/>
+      <c r="AN38" s="23"/>
+      <c r="AO38" s="23"/>
+      <c r="AP38" s="23"/>
+      <c r="AQ38" s="23"/>
+      <c r="AR38" s="23"/>
+      <c r="AS38" s="23"/>
+      <c r="AT38" s="23"/>
+      <c r="AU38" s="23"/>
+      <c r="AV38" s="23"/>
+      <c r="AW38" s="23"/>
+      <c r="AX38" s="23"/>
+      <c r="AY38" s="23"/>
+      <c r="AZ38" s="23"/>
+      <c r="BA38" s="23"/>
+      <c r="BB38" s="23"/>
+      <c r="BC38" s="23"/>
+      <c r="BD38" s="23"/>
+      <c r="BE38" s="23"/>
+      <c r="BF38" s="23"/>
+      <c r="BG38" s="23"/>
+      <c r="BH38" s="23"/>
+      <c r="BI38" s="23"/>
+      <c r="BJ38" s="23"/>
+      <c r="BK38" s="23"/>
+      <c r="BL38" s="23"/>
+      <c r="BM38" s="23"/>
+      <c r="BN38" s="23"/>
+      <c r="BO38" s="23"/>
+    </row>
+    <row r="39" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="72"/>
+      <c r="D39" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="66">
+        <v>0</v>
+      </c>
+      <c r="F39" s="50">
+        <v>44123</v>
+      </c>
+      <c r="G39" s="50">
+        <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
+        <v>44128</v>
+      </c>
+      <c r="H39" s="43">
+        <v>5</v>
+      </c>
+      <c r="I39" s="39"/>
+      <c r="J39" s="65">
+        <v>5</v>
+      </c>
+      <c r="K39" s="17"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="23"/>
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="23"/>
+      <c r="AG39" s="23"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="23"/>
+      <c r="AJ39" s="23"/>
+      <c r="AK39" s="23"/>
+      <c r="AL39" s="23"/>
+      <c r="AM39" s="23"/>
+      <c r="AN39" s="23"/>
+      <c r="AO39" s="23"/>
+      <c r="AP39" s="23"/>
+      <c r="AQ39" s="23"/>
+      <c r="AR39" s="23"/>
+      <c r="AS39" s="23"/>
+      <c r="AT39" s="23"/>
+      <c r="AU39" s="23"/>
+      <c r="AV39" s="23"/>
+      <c r="AW39" s="23"/>
+      <c r="AX39" s="23"/>
+      <c r="AY39" s="23"/>
+      <c r="AZ39" s="23"/>
+      <c r="BA39" s="23"/>
+      <c r="BB39" s="23"/>
+      <c r="BC39" s="23"/>
+      <c r="BD39" s="23"/>
+      <c r="BE39" s="23"/>
+      <c r="BF39" s="23"/>
+      <c r="BG39" s="23"/>
+      <c r="BH39" s="23"/>
+      <c r="BI39" s="23"/>
+      <c r="BJ39" s="23"/>
+      <c r="BK39" s="23"/>
+      <c r="BL39" s="23"/>
+      <c r="BM39" s="23"/>
+      <c r="BN39" s="23"/>
+      <c r="BO39" s="23"/>
+    </row>
+    <row r="40" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="70"/>
+      <c r="D40" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="68">
+        <v>0</v>
+      </c>
+      <c r="F40" s="63">
+        <v>44123</v>
+      </c>
+      <c r="G40" s="63">
+        <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
+        <v>44128</v>
+      </c>
+      <c r="H40" s="64">
+        <v>5</v>
+      </c>
+      <c r="I40" s="45"/>
+      <c r="J40" s="71">
+        <v>5</v>
+      </c>
+      <c r="K40" s="17"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="23"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="23"/>
+      <c r="AE40" s="23"/>
+      <c r="AF40" s="23"/>
+      <c r="AG40" s="23"/>
+      <c r="AH40" s="23"/>
+      <c r="AI40" s="23"/>
+      <c r="AJ40" s="23"/>
+      <c r="AK40" s="23"/>
+      <c r="AL40" s="23"/>
+      <c r="AM40" s="23"/>
+      <c r="AN40" s="23"/>
+      <c r="AO40" s="23"/>
+      <c r="AP40" s="23"/>
+      <c r="AQ40" s="23"/>
+      <c r="AR40" s="23"/>
+      <c r="AS40" s="23"/>
+      <c r="AT40" s="23"/>
+      <c r="AU40" s="23"/>
+      <c r="AV40" s="23"/>
+      <c r="AW40" s="23"/>
+      <c r="AX40" s="23"/>
+      <c r="AY40" s="23"/>
+      <c r="AZ40" s="23"/>
+      <c r="BA40" s="23"/>
+      <c r="BB40" s="23"/>
+      <c r="BC40" s="23"/>
+      <c r="BD40" s="23"/>
+      <c r="BE40" s="23"/>
+      <c r="BF40" s="23"/>
+      <c r="BG40" s="23"/>
+      <c r="BH40" s="23"/>
+      <c r="BI40" s="23"/>
+      <c r="BJ40" s="23"/>
+      <c r="BK40" s="23"/>
+      <c r="BL40" s="23"/>
+      <c r="BM40" s="23"/>
+      <c r="BN40" s="23"/>
+      <c r="BO40" s="23"/>
+    </row>
+    <row r="41" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="70"/>
+      <c r="D41" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="68">
+        <v>0</v>
+      </c>
+      <c r="F41" s="63">
+        <v>44123</v>
+      </c>
+      <c r="G41" s="63">
+        <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
+        <v>44128</v>
+      </c>
+      <c r="H41" s="64">
+        <v>5</v>
+      </c>
+      <c r="I41" s="45"/>
+      <c r="J41" s="71">
+        <v>5</v>
+      </c>
+      <c r="K41" s="17"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="23"/>
+      <c r="AA41" s="23"/>
+      <c r="AB41" s="23"/>
+      <c r="AC41" s="23"/>
+      <c r="AD41" s="23"/>
+      <c r="AE41" s="23"/>
+      <c r="AF41" s="23"/>
+      <c r="AG41" s="23"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="23"/>
+      <c r="AJ41" s="23"/>
+      <c r="AK41" s="23"/>
+      <c r="AL41" s="23"/>
+      <c r="AM41" s="23"/>
+      <c r="AN41" s="23"/>
+      <c r="AO41" s="23"/>
+      <c r="AP41" s="23"/>
+      <c r="AQ41" s="23"/>
+      <c r="AR41" s="23"/>
+      <c r="AS41" s="23"/>
+      <c r="AT41" s="23"/>
+      <c r="AU41" s="23"/>
+      <c r="AV41" s="23"/>
+      <c r="AW41" s="23"/>
+      <c r="AX41" s="23"/>
+      <c r="AY41" s="23"/>
+      <c r="AZ41" s="23"/>
+      <c r="BA41" s="23"/>
+      <c r="BB41" s="23"/>
+      <c r="BC41" s="23"/>
+      <c r="BD41" s="23"/>
+      <c r="BE41" s="23"/>
+      <c r="BF41" s="23"/>
+      <c r="BG41" s="23"/>
+      <c r="BH41" s="23"/>
+      <c r="BI41" s="23"/>
+      <c r="BJ41" s="23"/>
+      <c r="BK41" s="23"/>
+      <c r="BL41" s="23"/>
+      <c r="BM41" s="23"/>
+      <c r="BN41" s="23"/>
+      <c r="BO41" s="23"/>
+    </row>
+    <row r="42" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="70"/>
+      <c r="D42" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="68">
+        <v>0</v>
+      </c>
+      <c r="F42" s="63">
+        <v>44123</v>
+      </c>
+      <c r="G42" s="63">
+        <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
+        <v>44128</v>
+      </c>
+      <c r="H42" s="64">
+        <v>5</v>
+      </c>
+      <c r="I42" s="45"/>
+      <c r="J42" s="71">
+        <v>5</v>
+      </c>
+      <c r="K42" s="17"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="23"/>
+      <c r="AB42" s="23"/>
+      <c r="AC42" s="23"/>
+      <c r="AD42" s="23"/>
+      <c r="AE42" s="23"/>
+      <c r="AF42" s="23"/>
+      <c r="AG42" s="23"/>
+      <c r="AH42" s="23"/>
+      <c r="AI42" s="23"/>
+      <c r="AJ42" s="23"/>
+      <c r="AK42" s="23"/>
+      <c r="AL42" s="23"/>
+      <c r="AM42" s="23"/>
+      <c r="AN42" s="23"/>
+      <c r="AO42" s="23"/>
+      <c r="AP42" s="23"/>
+      <c r="AQ42" s="23"/>
+      <c r="AR42" s="23"/>
+      <c r="AS42" s="23"/>
+      <c r="AT42" s="23"/>
+      <c r="AU42" s="23"/>
+      <c r="AV42" s="23"/>
+      <c r="AW42" s="23"/>
+      <c r="AX42" s="23"/>
+      <c r="AY42" s="23"/>
+      <c r="AZ42" s="23"/>
+      <c r="BA42" s="23"/>
+      <c r="BB42" s="23"/>
+      <c r="BC42" s="23"/>
+      <c r="BD42" s="23"/>
+      <c r="BE42" s="23"/>
+      <c r="BF42" s="23"/>
+      <c r="BG42" s="23"/>
+      <c r="BH42" s="23"/>
+      <c r="BI42" s="23"/>
+      <c r="BJ42" s="23"/>
+      <c r="BK42" s="23"/>
+      <c r="BL42" s="23"/>
+      <c r="BM42" s="23"/>
+      <c r="BN42" s="23"/>
+      <c r="BO42" s="23"/>
+    </row>
+    <row r="43" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="70"/>
+      <c r="D43" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="68">
+        <v>0</v>
+      </c>
+      <c r="F43" s="63">
+        <v>44123</v>
+      </c>
+      <c r="G43" s="63">
+        <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
+        <v>44128</v>
+      </c>
+      <c r="H43" s="64">
+        <v>5</v>
+      </c>
+      <c r="I43" s="45"/>
+      <c r="J43" s="71">
+        <v>5</v>
+      </c>
+      <c r="K43" s="17"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="23"/>
+      <c r="AA43" s="23"/>
+      <c r="AB43" s="23"/>
+      <c r="AC43" s="23"/>
+      <c r="AD43" s="23"/>
+      <c r="AE43" s="23"/>
+      <c r="AF43" s="23"/>
+      <c r="AG43" s="23"/>
+      <c r="AH43" s="23"/>
+      <c r="AI43" s="23"/>
+      <c r="AJ43" s="23"/>
+      <c r="AK43" s="23"/>
+      <c r="AL43" s="23"/>
+      <c r="AM43" s="23"/>
+      <c r="AN43" s="23"/>
+      <c r="AO43" s="23"/>
+      <c r="AP43" s="23"/>
+      <c r="AQ43" s="23"/>
+      <c r="AR43" s="23"/>
+      <c r="AS43" s="23"/>
+      <c r="AT43" s="23"/>
+      <c r="AU43" s="23"/>
+      <c r="AV43" s="23"/>
+      <c r="AW43" s="23"/>
+      <c r="AX43" s="23"/>
+      <c r="AY43" s="23"/>
+      <c r="AZ43" s="23"/>
+      <c r="BA43" s="23"/>
+      <c r="BB43" s="23"/>
+      <c r="BC43" s="23"/>
+      <c r="BD43" s="23"/>
+      <c r="BE43" s="23"/>
+      <c r="BF43" s="23"/>
+      <c r="BG43" s="23"/>
+      <c r="BH43" s="23"/>
+      <c r="BI43" s="23"/>
+      <c r="BJ43" s="23"/>
+      <c r="BK43" s="23"/>
+      <c r="BL43" s="23"/>
+      <c r="BM43" s="23"/>
+      <c r="BN43" s="23"/>
+      <c r="BO43" s="23"/>
+    </row>
+    <row r="44" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="44" t="str">
+      <c r="B44" s="33"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63" t="str">
         <f>IF(Hitos[[#This Row],[Tempo Real]]="","",Hitos[[#This Row],[Inicio]]+Hitos[[#This Row],[Tempo Real]])</f>
         <v/>
       </c>
-      <c r="H34" s="50"/>
-      <c r="I34" s="53" t="str">
-        <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
-        <v/>
-      </c>
-      <c r="J34" s="47"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="27" t="str">
-        <f t="shared" ref="L34:AQ34" ca="1" si="13">IF(AND($C34="Objetivo",L$5&gt;=$F34,L$5&lt;=$F34+$J34-1),2,IF(AND($C34="Hito",L$5&gt;=$F34,L$5&lt;=$F34+$J34-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="M34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="N34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="O34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="P34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="Q34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="R34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="S34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="T34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="U34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="V34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="W34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="X34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="Y34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="Z34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AA34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AB34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AC34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AD34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AE34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AF34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AG34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AH34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AI34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AJ34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AK34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AL34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AM34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AN34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AO34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AP34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AQ34" s="27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AR34" s="27" t="str">
-        <f t="shared" ref="AR34:BO34" ca="1" si="14">IF(AND($C34="Objetivo",AR$5&gt;=$F34,AR$5&lt;=$F34+$J34-1),2,IF(AND($C34="Hito",AR$5&gt;=$F34,AR$5&lt;=$F34+$J34-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AS34" s="27" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AT34" s="27" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AU34" s="27" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AV34" s="27" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AW34" s="27" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AX34" s="27" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AY34" s="27" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AZ34" s="27" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BA34" s="27" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BB34" s="27" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BC34" s="27" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BD34" s="27" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BE34" s="27" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BF34" s="27" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BG34" s="27" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BH34" s="27" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BI34" s="27" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BJ34" s="27" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BK34" s="27" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BL34" s="27" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BM34" s="27" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BN34" s="27" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BO34" s="27" t="str">
-        <f t="shared" ca="1" si="14"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",L$5&gt;=$F38,L$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",L$5&gt;=$F38,L$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="M44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",M$5&gt;=$F38,M$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",M$5&gt;=$F38,M$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="N44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",N$5&gt;=$F38,N$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",N$5&gt;=$F38,N$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="O44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",O$5&gt;=$F38,O$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",O$5&gt;=$F38,O$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="P44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",P$5&gt;=$F38,P$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",P$5&gt;=$F38,P$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Q44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",Q$5&gt;=$F38,Q$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",Q$5&gt;=$F38,Q$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="R44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",R$5&gt;=$F38,R$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",R$5&gt;=$F38,R$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="S44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",S$5&gt;=$F38,S$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",S$5&gt;=$F38,S$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="T44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",T$5&gt;=$F38,T$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",T$5&gt;=$F38,T$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="U44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",U$5&gt;=$F38,U$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",U$5&gt;=$F38,U$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="V44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",V$5&gt;=$F38,V$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",V$5&gt;=$F38,V$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="W44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",W$5&gt;=$F38,W$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",W$5&gt;=$F38,W$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="X44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",X$5&gt;=$F38,X$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",X$5&gt;=$F38,X$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Y44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",Y$5&gt;=$F38,Y$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",Y$5&gt;=$F38,Y$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Z44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",Z$5&gt;=$F38,Z$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",Z$5&gt;=$F38,Z$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AA44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AA$5&gt;=$F38,AA$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AA$5&gt;=$F38,AA$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AB44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AB$5&gt;=$F38,AB$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AB$5&gt;=$F38,AB$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AC44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AC$5&gt;=$F38,AC$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AC$5&gt;=$F38,AC$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AD44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AD$5&gt;=$F38,AD$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AD$5&gt;=$F38,AD$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AE44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AE$5&gt;=$F38,AE$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AE$5&gt;=$F38,AE$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AF44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AF$5&gt;=$F38,AF$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AF$5&gt;=$F38,AF$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AG44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AG$5&gt;=$F38,AG$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AG$5&gt;=$F38,AG$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AH44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AH$5&gt;=$F38,AH$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AH$5&gt;=$F38,AH$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AI44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AI$5&gt;=$F38,AI$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AI$5&gt;=$F38,AI$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AJ44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AJ$5&gt;=$F38,AJ$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AJ$5&gt;=$F38,AJ$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AK44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AK$5&gt;=$F38,AK$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AK$5&gt;=$F38,AK$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AL44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AL$5&gt;=$F38,AL$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AL$5&gt;=$F38,AL$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AM44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AM$5&gt;=$F38,AM$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AM$5&gt;=$F38,AM$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AN44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AN$5&gt;=$F38,AN$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AN$5&gt;=$F38,AN$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AO44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AO$5&gt;=$F38,AO$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AO$5&gt;=$F38,AO$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AP44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AP$5&gt;=$F38,AP$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AP$5&gt;=$F38,AP$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AQ$5&gt;=$F38,AQ$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AQ$5&gt;=$F38,AQ$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AR44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AR$5&gt;=$F38,AR$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AR$5&gt;=$F38,AR$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AS44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AS$5&gt;=$F38,AS$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AS$5&gt;=$F38,AS$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AT44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AT$5&gt;=$F38,AT$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AT$5&gt;=$F38,AT$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AU44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AU$5&gt;=$F38,AU$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AU$5&gt;=$F38,AU$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AV44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AV$5&gt;=$F38,AV$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AV$5&gt;=$F38,AV$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AW44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AW$5&gt;=$F38,AW$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AW$5&gt;=$F38,AW$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AX44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AX$5&gt;=$F38,AX$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AX$5&gt;=$F38,AX$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AY44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AY$5&gt;=$F38,AY$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AY$5&gt;=$F38,AY$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AZ44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",AZ$5&gt;=$F38,AZ$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AZ$5&gt;=$F38,AZ$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BA44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",BA$5&gt;=$F38,BA$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BA$5&gt;=$F38,BA$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BB44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",BB$5&gt;=$F38,BB$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BB$5&gt;=$F38,BB$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BC44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",BC$5&gt;=$F38,BC$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BC$5&gt;=$F38,BC$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BD44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",BD$5&gt;=$F38,BD$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BD$5&gt;=$F38,BD$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BE44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",BE$5&gt;=$F38,BE$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BE$5&gt;=$F38,BE$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BF44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",BF$5&gt;=$F38,BF$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BF$5&gt;=$F38,BF$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BG44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",BG$5&gt;=$F38,BG$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BG$5&gt;=$F38,BG$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BH44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",BH$5&gt;=$F38,BH$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BH$5&gt;=$F38,BH$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BI44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",BI$5&gt;=$F38,BI$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BI$5&gt;=$F38,BI$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BJ44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",BJ$5&gt;=$F38,BJ$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BJ$5&gt;=$F38,BJ$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BK44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",BK$5&gt;=$F38,BK$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BK$5&gt;=$F38,BK$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BL44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",BL$5&gt;=$F38,BL$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BL$5&gt;=$F38,BL$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BM44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",BM$5&gt;=$F38,BM$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BM$5&gt;=$F38,BM$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BN44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",BN$5&gt;=$F38,BN$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BN$5&gt;=$F38,BN$5&lt;=$F38+$J38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BO44" s="23" t="str">
+        <f ca="1">IF(AND($C38="Objetivo",BO$5&gt;=$F38,BO$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BO$5&gt;=$F38,BO$5&lt;=$F38+$J38-1),1,""))</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="26"/>
-      <c r="Z35" s="26"/>
-      <c r="AA35" s="26"/>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="26"/>
-      <c r="AE35" s="26"/>
-      <c r="AF35" s="26"/>
-      <c r="AG35" s="26"/>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="26"/>
-      <c r="AJ35" s="26"/>
-      <c r="AK35" s="26"/>
-      <c r="AL35" s="26"/>
-      <c r="AM35" s="26"/>
-      <c r="AN35" s="26"/>
-      <c r="AO35" s="26"/>
-      <c r="AP35" s="26"/>
-      <c r="AQ35" s="26"/>
-      <c r="AR35" s="26"/>
-      <c r="AS35" s="26"/>
-      <c r="AT35" s="26"/>
-      <c r="AU35" s="26"/>
-      <c r="AV35" s="26"/>
-      <c r="AW35" s="26"/>
-      <c r="AX35" s="26"/>
-      <c r="AY35" s="26"/>
-      <c r="AZ35" s="26"/>
-      <c r="BA35" s="26"/>
-      <c r="BB35" s="26"/>
-      <c r="BC35" s="26"/>
-      <c r="BD35" s="26"/>
-      <c r="BE35" s="26"/>
-      <c r="BF35" s="26"/>
-      <c r="BG35" s="26"/>
-      <c r="BH35" s="26"/>
-      <c r="BI35" s="26"/>
-      <c r="BJ35" s="26"/>
-      <c r="BK35" s="26"/>
-      <c r="BL35" s="26"/>
-      <c r="BM35" s="26"/>
-      <c r="BN35" s="26"/>
-      <c r="BO35" s="26"/>
+    <row r="45" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="5"/>
+      <c r="E45" s="48"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="4"/>
     </row>
-    <row r="36" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="5"/>
-      <c r="E36" s="56"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="6"/>
+    <row r="46" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6553,8 +7499,8 @@
     <mergeCell ref="V2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
-  <conditionalFormatting sqref="E19:E25 E7:E17 E27:E34">
-    <cfRule type="dataBar" priority="20">
+  <conditionalFormatting sqref="E19:E25 E7:E17 E27:E36">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6567,56 +7513,56 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:BO25 L27:BO35 M26:BO26">
-    <cfRule type="expression" dxfId="20" priority="1">
+  <conditionalFormatting sqref="L5:BO25 L27:BO36 M26:BO26">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:AP4">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="15" priority="38">
       <formula>L$5&lt;=EOMONTH($L$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:BO4">
-    <cfRule type="expression" dxfId="18" priority="15">
+    <cfRule type="expression" dxfId="14" priority="34">
       <formula>AND(M$5&lt;=EOMONTH($L$5,2),M$5&gt;EOMONTH($L$5,0),M$5&gt;EOMONTH($L$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:BO4">
-    <cfRule type="expression" dxfId="17" priority="14">
+    <cfRule type="expression" dxfId="13" priority="33">
       <formula>AND(L$5&lt;=EOMONTH($L$5,1),L$5&gt;EOMONTH($L$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:BO25 L27:BO34 M26:BO26">
-    <cfRule type="expression" dxfId="16" priority="13">
+  <conditionalFormatting sqref="L8:BO25 M26:BO26 L27:BO44">
+    <cfRule type="expression" dxfId="12" priority="32">
       <formula>AND($C8="Riesgo bajo",L$5&gt;=$F8,L$5&lt;=$F8+$J8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="21">
+    <cfRule type="expression" dxfId="11" priority="40">
       <formula>AND($C8="Riesgo alto",L$5&gt;=$F8,L$5&lt;=$F8+$J8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="36">
+    <cfRule type="expression" dxfId="10" priority="55">
       <formula>AND($C8="Según lo previsto",L$5&gt;=$F8,L$5&lt;=$F8+$J8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="55">
+    <cfRule type="expression" dxfId="9" priority="74">
       <formula>AND($C8="Riesgo medio",L$5&gt;=$F8,L$5&lt;=$F8+$J8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="92">
+      <formula>AND(LEN($C8)=0,L$5&lt;=$G8-1,L$5&gt;=$G8-$I8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="93" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,TODAY()&lt;=L$5,L$5&gt;=$F8,L$5&lt;=$F8+$J8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="94" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,L$5&gt;=$F8,L$5&lt;=$F8+$J8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="73">
-      <formula>AND(LEN($C8)=0,L$5&lt;=$G8-1,L$5&gt;=$G8-$I8)</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E25 E9:E17 E27:E34">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+  <conditionalFormatting sqref="E19:E25 E9:E17 E27:E36">
+    <cfRule type="cellIs" dxfId="5" priority="26" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6630,12 +7576,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="24" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6649,7 +7595,50 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="22" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:E38 E44">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1CA34155-D11E-4777-AC31-A72A29E61865}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L37:BO44">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:E38 E44">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E43">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FEA5CC7D-81BD-4475-8EE4-E47D75441F55}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E43">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6657,13 +7646,13 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incremento de desplazamiento" prompt="Al cambiar este número, se desplazará la vista del diagrama de Gantt." sqref="F4:I4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C34" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C44" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Objetivo,Hito,Según lo previsto, Riesgo bajo, Riesgo medio, Riesgo alto"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="29" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -6716,7 +7705,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E19:E25 E7:E17 E27:E34</xm:sqref>
+          <xm:sqref>E19:E25 E7:E17 E27:E36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{17EA222C-3DA5-49EA-BBAC-74A966289BB6}">
@@ -6749,7 +7738,7 @@
           <xm:sqref>E26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="21" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6765,10 +7754,25 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L8:BO25 L27:BO34 M26:BO26</xm:sqref>
+          <xm:sqref>L8:BO25 L27:BO36 M26:BO26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="82" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="dataBar" id="{1CA34155-D11E-4777-AC31-A72A29E61865}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E37:E38 E44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="109" id="{40B2E3A2-07FB-43DF-8379-BC4F17ADBBC5}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6784,7 +7788,22 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L35:BO35</xm:sqref>
+          <xm:sqref>L37:BO44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FEA5CC7D-81BD-4475-8EE4-E47D75441F55}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E39:E43</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6794,7 +7813,7 @@
           <x14:formula1>
             <xm:f>Equipo!$B$4:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D9:D34</xm:sqref>
+          <xm:sqref>D9:D44</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6818,152 +7837,152 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G22" s="54" t="s">
-        <v>14</v>
+      <c r="G22" s="46" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G23" s="55" t="s">
-        <v>15</v>
+      <c r="G23" s="47" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G24" s="54" t="s">
-        <v>15</v>
+      <c r="G24" s="46" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G25" s="55" t="s">
-        <v>14</v>
+      <c r="G25" s="47" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G26" s="54" t="s">
-        <v>15</v>
+      <c r="G26" s="46" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G27" s="55" t="s">
-        <v>15</v>
+      <c r="G27" s="47" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G28" s="54" t="s">
-        <v>14</v>
+      <c r="G28" s="46" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G29" s="55" t="s">
-        <v>15</v>
+      <c r="G29" s="47" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G30" s="54" t="s">
-        <v>13</v>
+      <c r="G30" s="46" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G31" s="55" t="s">
-        <v>12</v>
+      <c r="G31" s="47" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G32" s="54" t="s">
-        <v>12</v>
+      <c r="G32" s="46" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G33" s="55" t="s">
-        <v>15</v>
+      <c r="G33" s="47" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G34" s="54" t="s">
-        <v>12</v>
+      <c r="G34" s="46" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G35" s="55" t="s">
-        <v>12</v>
+      <c r="G35" s="47" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G36" s="54" t="s">
-        <v>12</v>
+      <c r="G36" s="46" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G37" s="55" t="s">
-        <v>12</v>
+      <c r="G37" s="47" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G38" s="54" t="s">
-        <v>12</v>
+      <c r="G38" s="46" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G39" s="55"/>
+      <c r="G39" s="47"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D127DE14-9365-4223-BD73-851088D31452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F8DEC1-233F-4DB5-9C4F-9885ECC23813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -1263,28 +1263,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="9" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="9" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="9" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1323,6 +1301,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="9" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="9" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="9" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1378,6 +1378,76 @@
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="36">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1670,76 +1740,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -2008,7 +2008,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>67</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
@@ -2064,17 +2064,17 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Actividad" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Responsible" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Actividad" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Responsible" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progreso"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Inicio" dataCellStyle="Fecha"/>
-    <tableColumn id="7" xr3:uid="{AD711F2E-44A9-44B7-8131-6D3B788C5B59}" name="Fin" dataDxfId="20" dataCellStyle="Fecha">
+    <tableColumn id="7" xr3:uid="{AD711F2E-44A9-44B7-8131-6D3B788C5B59}" name="Fin" dataDxfId="3" dataCellStyle="Fecha">
       <calculatedColumnFormula>IF(Hitos[[#This Row],[Tempo Real]]="","",Hitos[[#This Row],[Inicio]]+Hitos[[#This Row],[Tempo Real]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{35C8688A-27C0-48D0-8EF8-7CEECBAB268F}" name="Tiempo estimado" dataDxfId="19" dataCellStyle="Fecha"/>
-    <tableColumn id="10" xr3:uid="{7E204890-F31C-4688-99B2-203C9F0B1172}" name="Tiempo de retraso" dataDxfId="18" dataCellStyle="Fecha"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Tempo Real" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{35C8688A-27C0-48D0-8EF8-7CEECBAB268F}" name="Tiempo estimado" dataDxfId="2" dataCellStyle="Fecha"/>
+    <tableColumn id="10" xr3:uid="{7E204890-F31C-4688-99B2-203C9F0B1172}" name="Tiempo de retraso" dataDxfId="1" dataCellStyle="Fecha"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Tempo Real" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabla personalizado" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2365,10 +2365,10 @@
   <dimension ref="A1:BO46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="11" ySplit="8" topLeftCell="M9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="8" topLeftCell="M24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="BC46" sqref="BC46"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2417,30 +2417,30 @@
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
       <c r="P2" s="53"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
       <c r="U2" s="53"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
       <c r="Z2" s="53"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
       <c r="AE2" s="53"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -2450,28 +2450,28 @@
         <v>26</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="60">
+      <c r="E3" s="71"/>
+      <c r="F3" s="73">
         <f ca="1">IFERROR(IF(MIN(Hitos[Inicio])=0,TODAY(),MIN(Hitos[Inicio])),TODAY())</f>
         <v>44088</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="75"/>
       <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="26">
         <v>0</v>
       </c>
@@ -2563,16 +2563,16 @@
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
       <c r="L5" s="30">
         <f ca="1">IFERROR(Inicio_del_proyecto+Incremento_de_desplazamiento,TODAY())</f>
         <v>44088</v>
@@ -3198,7 +3198,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="21"/>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="59" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="51">
@@ -4918,18 +4918,18 @@
       </c>
       <c r="G17" s="37">
         <f ca="1">TODAY()</f>
-        <v>44123</v>
+        <v>44127</v>
       </c>
       <c r="H17" s="42">
         <v>6</v>
       </c>
       <c r="I17" s="45">
         <f ca="1">IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J17" s="21">
         <f ca="1">Hitos[[#This Row],[Fin]]-Hitos[[#This Row],[Inicio]]</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K17" s="17"/>
       <c r="L17" s="23"/>
@@ -4995,7 +4995,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="21"/>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="59" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="51">
@@ -5692,11 +5692,11 @@
         <v>50</v>
       </c>
       <c r="C26" s="21"/>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="59" t="s">
         <v>32</v>
       </c>
       <c r="E26" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="50">
         <v>44123</v>
@@ -5709,7 +5709,7 @@
         <v>4</v>
       </c>
       <c r="I26" s="45"/>
-      <c r="J26" s="65">
+      <c r="J26" s="57">
         <v>4</v>
       </c>
       <c r="K26" s="17"/>
@@ -5775,20 +5775,19 @@
         <v>58</v>
       </c>
       <c r="C27" s="21"/>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="68">
-        <v>0</v>
-      </c>
-      <c r="F27" s="63">
+      <c r="E27" s="60">
+        <v>1</v>
+      </c>
+      <c r="F27" s="55">
         <v>44123</v>
       </c>
-      <c r="G27" s="63">
-        <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
+      <c r="G27" s="55">
         <v>44127</v>
       </c>
-      <c r="H27" s="64">
+      <c r="H27" s="56">
         <v>4</v>
       </c>
       <c r="I27" s="45" t="str">
@@ -5864,20 +5863,19 @@
         <v>47</v>
       </c>
       <c r="C28" s="21"/>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="68">
-        <v>0</v>
-      </c>
-      <c r="F28" s="63">
+      <c r="E28" s="60">
+        <v>1</v>
+      </c>
+      <c r="F28" s="55">
         <v>44123</v>
       </c>
-      <c r="G28" s="63">
-        <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
+      <c r="G28" s="55">
         <v>44127</v>
       </c>
-      <c r="H28" s="64">
+      <c r="H28" s="56">
         <v>4</v>
       </c>
       <c r="I28" s="45" t="str">
@@ -5951,20 +5949,19 @@
         <v>60</v>
       </c>
       <c r="C29" s="21"/>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="68">
-        <v>0</v>
-      </c>
-      <c r="F29" s="63">
+      <c r="E29" s="60">
+        <v>1</v>
+      </c>
+      <c r="F29" s="55">
         <v>44123</v>
       </c>
-      <c r="G29" s="63">
-        <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
+      <c r="G29" s="55">
         <v>44127</v>
       </c>
-      <c r="H29" s="64">
+      <c r="H29" s="56">
         <v>4</v>
       </c>
       <c r="I29" s="45" t="str">
@@ -6038,20 +6035,19 @@
         <v>61</v>
       </c>
       <c r="C30" s="21"/>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="68">
-        <v>0</v>
-      </c>
-      <c r="F30" s="63">
+      <c r="E30" s="60">
+        <v>1</v>
+      </c>
+      <c r="F30" s="55">
         <v>44123</v>
       </c>
-      <c r="G30" s="63">
-        <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
+      <c r="G30" s="55">
         <v>44127</v>
       </c>
-      <c r="H30" s="64">
+      <c r="H30" s="56">
         <v>4</v>
       </c>
       <c r="I30" s="45" t="str">
@@ -6125,20 +6121,19 @@
         <v>62</v>
       </c>
       <c r="C31" s="21"/>
-      <c r="D31" s="73" t="s">
+      <c r="D31" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="68">
-        <v>0</v>
-      </c>
-      <c r="F31" s="63">
+      <c r="E31" s="60">
+        <v>1</v>
+      </c>
+      <c r="F31" s="55">
         <v>44123</v>
       </c>
-      <c r="G31" s="63">
-        <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
+      <c r="G31" s="55">
         <v>44127</v>
       </c>
-      <c r="H31" s="64">
+      <c r="H31" s="56">
         <v>4</v>
       </c>
       <c r="I31" s="45" t="str">
@@ -6212,20 +6207,19 @@
         <v>57</v>
       </c>
       <c r="C32" s="21"/>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="68">
-        <v>0</v>
-      </c>
-      <c r="F32" s="63">
+      <c r="E32" s="60">
+        <v>1</v>
+      </c>
+      <c r="F32" s="55">
         <v>44123</v>
       </c>
-      <c r="G32" s="63">
-        <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
+      <c r="G32" s="55">
         <v>44127</v>
       </c>
-      <c r="H32" s="64">
+      <c r="H32" s="56">
         <v>4</v>
       </c>
       <c r="I32" s="45" t="str">
@@ -6298,11 +6292,11 @@
       <c r="B33" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="74" t="s">
+      <c r="C33" s="64"/>
+      <c r="D33" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="66">
+      <c r="E33" s="58">
         <v>0</v>
       </c>
       <c r="F33" s="50">
@@ -6319,7 +6313,7 @@
         <f>IF(Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]]&gt;0,Hitos[[#This Row],[Tempo Real]]-Hitos[[#This Row],[Tiempo estimado]],"")</f>
         <v/>
       </c>
-      <c r="J33" s="65">
+      <c r="J33" s="57">
         <v>4</v>
       </c>
       <c r="K33" s="17"/>
@@ -6386,20 +6380,20 @@
         <v>64</v>
       </c>
       <c r="C34" s="21"/>
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="60">
         <v>0</v>
       </c>
-      <c r="F34" s="63">
+      <c r="F34" s="55">
         <v>44123</v>
       </c>
-      <c r="G34" s="63">
+      <c r="G34" s="55">
         <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
         <v>44127</v>
       </c>
-      <c r="H34" s="64">
+      <c r="H34" s="56">
         <v>4</v>
       </c>
       <c r="I34" s="45" t="str">
@@ -6473,20 +6467,20 @@
         <v>47</v>
       </c>
       <c r="C35" s="21"/>
-      <c r="D35" s="73" t="s">
+      <c r="D35" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="68">
+      <c r="E35" s="60">
         <v>0</v>
       </c>
-      <c r="F35" s="63">
+      <c r="F35" s="55">
         <v>44123</v>
       </c>
-      <c r="G35" s="63">
+      <c r="G35" s="55">
         <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
         <v>44127</v>
       </c>
-      <c r="H35" s="64">
+      <c r="H35" s="56">
         <v>4</v>
       </c>
       <c r="I35" s="45" t="str">
@@ -6560,20 +6554,20 @@
         <v>65</v>
       </c>
       <c r="C36" s="21"/>
-      <c r="D36" s="73" t="s">
+      <c r="D36" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="68">
+      <c r="E36" s="60">
         <v>0</v>
       </c>
-      <c r="F36" s="63">
+      <c r="F36" s="55">
         <v>44123</v>
       </c>
-      <c r="G36" s="63">
+      <c r="G36" s="55">
         <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
         <v>44127</v>
       </c>
-      <c r="H36" s="64">
+      <c r="H36" s="56">
         <v>4</v>
       </c>
       <c r="I36" s="45" t="str">
@@ -6647,20 +6641,20 @@
         <v>66</v>
       </c>
       <c r="C37" s="21"/>
-      <c r="D37" s="73" t="s">
+      <c r="D37" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="68">
+      <c r="E37" s="60">
         <v>0</v>
       </c>
-      <c r="F37" s="63">
+      <c r="F37" s="55">
         <v>44123</v>
       </c>
-      <c r="G37" s="63">
+      <c r="G37" s="55">
         <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
         <v>44127</v>
       </c>
-      <c r="H37" s="64">
+      <c r="H37" s="56">
         <v>4</v>
       </c>
       <c r="I37" s="45" t="str">
@@ -6734,20 +6728,20 @@
         <v>57</v>
       </c>
       <c r="C38" s="21"/>
-      <c r="D38" s="73" t="s">
+      <c r="D38" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="68">
+      <c r="E38" s="60">
         <v>0</v>
       </c>
-      <c r="F38" s="63">
+      <c r="F38" s="55">
         <v>44123</v>
       </c>
-      <c r="G38" s="63">
+      <c r="G38" s="55">
         <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
         <v>44127</v>
       </c>
-      <c r="H38" s="64">
+      <c r="H38" s="56">
         <v>4</v>
       </c>
       <c r="I38" s="45" t="str">
@@ -6820,11 +6814,11 @@
       <c r="B39" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="74" t="s">
+      <c r="C39" s="64"/>
+      <c r="D39" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="66">
+      <c r="E39" s="58">
         <v>0</v>
       </c>
       <c r="F39" s="50">
@@ -6838,7 +6832,7 @@
         <v>5</v>
       </c>
       <c r="I39" s="39"/>
-      <c r="J39" s="65">
+      <c r="J39" s="57">
         <v>5</v>
       </c>
       <c r="K39" s="17"/>
@@ -6901,28 +6895,28 @@
     </row>
     <row r="40" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
-      <c r="B40" s="75" t="s">
+      <c r="B40" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="70"/>
-      <c r="D40" s="73" t="s">
+      <c r="C40" s="62"/>
+      <c r="D40" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="68">
+      <c r="E40" s="60">
         <v>0</v>
       </c>
-      <c r="F40" s="63">
+      <c r="F40" s="55">
         <v>44123</v>
       </c>
-      <c r="G40" s="63">
+      <c r="G40" s="55">
         <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
         <v>44128</v>
       </c>
-      <c r="H40" s="64">
+      <c r="H40" s="56">
         <v>5</v>
       </c>
       <c r="I40" s="45"/>
-      <c r="J40" s="71">
+      <c r="J40" s="63">
         <v>5</v>
       </c>
       <c r="K40" s="17"/>
@@ -6985,28 +6979,28 @@
     </row>
     <row r="41" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="70"/>
-      <c r="D41" s="73" t="s">
+      <c r="C41" s="62"/>
+      <c r="D41" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="68">
+      <c r="E41" s="60">
         <v>0</v>
       </c>
-      <c r="F41" s="63">
+      <c r="F41" s="55">
         <v>44123</v>
       </c>
-      <c r="G41" s="63">
+      <c r="G41" s="55">
         <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
         <v>44128</v>
       </c>
-      <c r="H41" s="64">
+      <c r="H41" s="56">
         <v>5</v>
       </c>
       <c r="I41" s="45"/>
-      <c r="J41" s="71">
+      <c r="J41" s="63">
         <v>5</v>
       </c>
       <c r="K41" s="17"/>
@@ -7069,28 +7063,28 @@
     </row>
     <row r="42" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="70"/>
-      <c r="D42" s="73" t="s">
+      <c r="C42" s="62"/>
+      <c r="D42" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="68">
+      <c r="E42" s="60">
         <v>0</v>
       </c>
-      <c r="F42" s="63">
+      <c r="F42" s="55">
         <v>44123</v>
       </c>
-      <c r="G42" s="63">
+      <c r="G42" s="55">
         <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
         <v>44128</v>
       </c>
-      <c r="H42" s="64">
+      <c r="H42" s="56">
         <v>5</v>
       </c>
       <c r="I42" s="45"/>
-      <c r="J42" s="71">
+      <c r="J42" s="63">
         <v>5</v>
       </c>
       <c r="K42" s="17"/>
@@ -7153,28 +7147,28 @@
     </row>
     <row r="43" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="73" t="s">
+      <c r="C43" s="62"/>
+      <c r="D43" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="68">
+      <c r="E43" s="60">
         <v>0</v>
       </c>
-      <c r="F43" s="63">
+      <c r="F43" s="55">
         <v>44123</v>
       </c>
-      <c r="G43" s="63">
+      <c r="G43" s="55">
         <f>Hitos[[#This Row],[Tiempo estimado]]+Hitos[[#This Row],[Inicio]]</f>
         <v>44128</v>
       </c>
-      <c r="H43" s="64">
+      <c r="H43" s="56">
         <v>5</v>
       </c>
       <c r="I43" s="45"/>
-      <c r="J43" s="71">
+      <c r="J43" s="63">
         <v>5</v>
       </c>
       <c r="K43" s="17"/>
@@ -7241,239 +7235,239 @@
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63" t="str">
+      <c r="D44" s="55"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55" t="str">
         <f>IF(Hitos[[#This Row],[Tempo Real]]="","",Hitos[[#This Row],[Inicio]]+Hitos[[#This Row],[Tempo Real]])</f>
         <v/>
       </c>
-      <c r="H44" s="64"/>
+      <c r="H44" s="56"/>
       <c r="I44" s="45"/>
       <c r="J44" s="40"/>
       <c r="K44" s="17"/>
       <c r="L44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",L$5&gt;=$F38,L$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",L$5&gt;=$F38,L$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ref="L44:AQ44" ca="1" si="12">IF(AND($C38="Objetivo",L$5&gt;=$F38,L$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",L$5&gt;=$F38,L$5&lt;=$F38+$J38-1),1,""))</f>
         <v/>
       </c>
       <c r="M44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",M$5&gt;=$F38,M$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",M$5&gt;=$F38,M$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="N44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",N$5&gt;=$F38,N$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",N$5&gt;=$F38,N$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",O$5&gt;=$F38,O$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",O$5&gt;=$F38,O$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="P44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",P$5&gt;=$F38,P$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",P$5&gt;=$F38,P$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Q44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",Q$5&gt;=$F38,Q$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",Q$5&gt;=$F38,Q$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="R44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",R$5&gt;=$F38,R$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",R$5&gt;=$F38,R$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="S44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",S$5&gt;=$F38,S$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",S$5&gt;=$F38,S$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="T44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",T$5&gt;=$F38,T$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",T$5&gt;=$F38,T$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="U44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",U$5&gt;=$F38,U$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",U$5&gt;=$F38,U$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="V44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",V$5&gt;=$F38,V$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",V$5&gt;=$F38,V$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="W44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",W$5&gt;=$F38,W$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",W$5&gt;=$F38,W$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="X44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",X$5&gt;=$F38,X$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",X$5&gt;=$F38,X$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Y44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",Y$5&gt;=$F38,Y$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",Y$5&gt;=$F38,Y$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Z44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",Z$5&gt;=$F38,Z$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",Z$5&gt;=$F38,Z$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AA44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AA$5&gt;=$F38,AA$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AA$5&gt;=$F38,AA$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AB44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AB$5&gt;=$F38,AB$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AB$5&gt;=$F38,AB$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AC44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AC$5&gt;=$F38,AC$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AC$5&gt;=$F38,AC$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AD44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AD$5&gt;=$F38,AD$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AD$5&gt;=$F38,AD$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AE44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AE$5&gt;=$F38,AE$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AE$5&gt;=$F38,AE$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AF44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AF$5&gt;=$F38,AF$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AF$5&gt;=$F38,AF$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AG44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AG$5&gt;=$F38,AG$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AG$5&gt;=$F38,AG$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AH44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AH$5&gt;=$F38,AH$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AH$5&gt;=$F38,AH$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AI44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AI$5&gt;=$F38,AI$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AI$5&gt;=$F38,AI$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AJ44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AJ$5&gt;=$F38,AJ$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AJ$5&gt;=$F38,AJ$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AK44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AK$5&gt;=$F38,AK$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AK$5&gt;=$F38,AK$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AL44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AL$5&gt;=$F38,AL$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AL$5&gt;=$F38,AL$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AM44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AM$5&gt;=$F38,AM$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AM$5&gt;=$F38,AM$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AN44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AN$5&gt;=$F38,AN$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AN$5&gt;=$F38,AN$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AO44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AO$5&gt;=$F38,AO$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AO$5&gt;=$F38,AO$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AP44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AP$5&gt;=$F38,AP$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AP$5&gt;=$F38,AP$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AQ44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AQ$5&gt;=$F38,AQ$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AQ$5&gt;=$F38,AQ$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AR44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AR$5&gt;=$F38,AR$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AR$5&gt;=$F38,AR$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ref="AR44:BO44" ca="1" si="13">IF(AND($C38="Objetivo",AR$5&gt;=$F38,AR$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AR$5&gt;=$F38,AR$5&lt;=$F38+$J38-1),1,""))</f>
         <v/>
       </c>
       <c r="AS44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AS$5&gt;=$F38,AS$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AS$5&gt;=$F38,AS$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AT44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AT$5&gt;=$F38,AT$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AT$5&gt;=$F38,AT$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AU44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AU$5&gt;=$F38,AU$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AU$5&gt;=$F38,AU$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AV44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AV$5&gt;=$F38,AV$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AV$5&gt;=$F38,AV$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AW44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AW$5&gt;=$F38,AW$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AW$5&gt;=$F38,AW$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AX44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AX$5&gt;=$F38,AX$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AX$5&gt;=$F38,AX$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AY44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AY$5&gt;=$F38,AY$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AY$5&gt;=$F38,AY$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AZ44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",AZ$5&gt;=$F38,AZ$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",AZ$5&gt;=$F38,AZ$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BA44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",BA$5&gt;=$F38,BA$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BA$5&gt;=$F38,BA$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BB44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",BB$5&gt;=$F38,BB$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BB$5&gt;=$F38,BB$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BC44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",BC$5&gt;=$F38,BC$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BC$5&gt;=$F38,BC$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BD44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",BD$5&gt;=$F38,BD$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BD$5&gt;=$F38,BD$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BE44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",BE$5&gt;=$F38,BE$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BE$5&gt;=$F38,BE$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BF44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",BF$5&gt;=$F38,BF$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BF$5&gt;=$F38,BF$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BG44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",BG$5&gt;=$F38,BG$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BG$5&gt;=$F38,BG$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BH44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",BH$5&gt;=$F38,BH$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BH$5&gt;=$F38,BH$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BI44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",BI$5&gt;=$F38,BI$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BI$5&gt;=$F38,BI$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BJ44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",BJ$5&gt;=$F38,BJ$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BJ$5&gt;=$F38,BJ$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BK44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",BK$5&gt;=$F38,BK$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BK$5&gt;=$F38,BK$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BL44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",BL$5&gt;=$F38,BL$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BL$5&gt;=$F38,BL$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BM44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",BM$5&gt;=$F38,BM$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BM$5&gt;=$F38,BM$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BN44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",BN$5&gt;=$F38,BN$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BN$5&gt;=$F38,BN$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BO44" s="23" t="str">
-        <f ca="1">IF(AND($C38="Objetivo",BO$5&gt;=$F38,BO$5&lt;=$F38+$J38-1),2,IF(AND($C38="Hito",BO$5&gt;=$F38,BO$5&lt;=$F38+$J38-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
@@ -7514,50 +7508,50 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:BO25 L27:BO36 M26:BO26">
-    <cfRule type="expression" dxfId="16" priority="20">
+    <cfRule type="expression" dxfId="23" priority="20">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:AP4">
-    <cfRule type="expression" dxfId="15" priority="38">
+    <cfRule type="expression" dxfId="22" priority="38">
       <formula>L$5&lt;=EOMONTH($L$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:BO4">
-    <cfRule type="expression" dxfId="14" priority="34">
+    <cfRule type="expression" dxfId="21" priority="34">
       <formula>AND(M$5&lt;=EOMONTH($L$5,2),M$5&gt;EOMONTH($L$5,0),M$5&gt;EOMONTH($L$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:BO4">
-    <cfRule type="expression" dxfId="13" priority="33">
+    <cfRule type="expression" dxfId="20" priority="33">
       <formula>AND(L$5&lt;=EOMONTH($L$5,1),L$5&gt;EOMONTH($L$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:BO25 M26:BO26 L27:BO44">
-    <cfRule type="expression" dxfId="12" priority="32">
+    <cfRule type="expression" dxfId="19" priority="32">
       <formula>AND($C8="Riesgo bajo",L$5&gt;=$F8,L$5&lt;=$F8+$J8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="40">
+    <cfRule type="expression" dxfId="18" priority="40">
       <formula>AND($C8="Riesgo alto",L$5&gt;=$F8,L$5&lt;=$F8+$J8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="55">
+    <cfRule type="expression" dxfId="17" priority="55">
       <formula>AND($C8="Según lo previsto",L$5&gt;=$F8,L$5&lt;=$F8+$J8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="74">
+    <cfRule type="expression" dxfId="16" priority="74">
       <formula>AND($C8="Riesgo medio",L$5&gt;=$F8,L$5&lt;=$F8+$J8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="92">
+    <cfRule type="expression" dxfId="15" priority="92">
       <formula>AND(LEN($C8)=0,L$5&lt;=$G8-1,L$5&gt;=$G8-$I8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="93" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,TODAY()&lt;=L$5,L$5&gt;=$F8,L$5&lt;=$F8+$J8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="94" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,L$5&gt;=$F8,L$5&lt;=$F8+$J8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E25 E9:E17 E27:E36">
-    <cfRule type="cellIs" dxfId="5" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7576,7 +7570,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="4" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="24" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7595,7 +7589,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="3" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="22" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7614,12 +7608,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37:BO44">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:E38 E44">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7638,7 +7632,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E43">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7738,6 +7732,36 @@
           <xm:sqref>E26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1CA34155-D11E-4777-AC31-A72A29E61865}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E37:E38 E44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FEA5CC7D-81BD-4475-8EE4-E47D75441F55}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E39:E43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="21" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -7757,21 +7781,6 @@
           <xm:sqref>L8:BO25 L27:BO36 M26:BO26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1CA34155-D11E-4777-AC31-A72A29E61865}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E37:E38 E44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="109" id="{40B2E3A2-07FB-43DF-8379-BC4F17ADBBC5}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -7789,21 +7798,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>L37:BO44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FEA5CC7D-81BD-4475-8EE4-E47D75441F55}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E39:E43</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
